--- a/data/데이터정리3.xlsx
+++ b/data/데이터정리3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdew\Documents\GitHub\IITPMainProject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\IITPMainProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AD476F-D0D7-4511-A307-3AF0CE789CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6ABDDC-CA01-42B0-84A3-F2A2BE322EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="43200" windowHeight="23535" xr2:uid="{7231E7A3-E348-4E7F-8483-471D8CE35087}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7231E7A3-E348-4E7F-8483-471D8CE35087}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>년도</t>
   </si>
@@ -140,12 +140,71 @@
     <t>불합합격/여</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>의사수 / 여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사수 / 남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사수 비율 / 남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사수 비율/ 여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사수 / 계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사고시 합격자  누적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사고시 출신비율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이탈자수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사고시합격자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사고시합격자/남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사고시합격자/여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이탈남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이탈여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이탈합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="186" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +234,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,13 +278,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -216,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,6 +344,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,21 +719,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D767E7AB-390E-4929-8917-02EA013ADAF7}">
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AP99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="9" max="12" width="9" style="7"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.875" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.375" customWidth="1"/>
     <col min="14" max="15" width="8.125" customWidth="1"/>
+    <col min="34" max="34" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="9" style="24"/>
+    <col min="39" max="39" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,8 +820,50 @@
       <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1950</v>
       </c>
@@ -685,8 +896,12 @@
         <f>F2+H2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AM2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1951</v>
       </c>
@@ -719,8 +934,12 @@
         <f t="shared" ref="J3:J66" si="1">F3+H3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AM3">
+        <f>AM2+C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1952</v>
       </c>
@@ -754,8 +973,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AM4">
+        <f>AM3+C4</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1953</v>
       </c>
@@ -789,8 +1012,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AM5">
+        <f>AM4+C5</f>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1954</v>
       </c>
@@ -824,8 +1051,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AM6">
+        <f>AM5+C6</f>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1955</v>
       </c>
@@ -859,8 +1090,41 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB7" s="12">
+        <v>5435</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>4838</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>597</v>
+      </c>
+      <c r="AE7">
+        <f>AC7/AB7</f>
+        <v>0.89015639374425026</v>
+      </c>
+      <c r="AF7">
+        <f>AD7/AB7</f>
+        <v>0.10984360625574976</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>252</v>
+      </c>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7">
+        <f>AM6+C7</f>
+        <v>788</v>
+      </c>
+      <c r="AN7">
+        <f>AM7/AB7</f>
+        <v>0.14498620055197792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1956</v>
       </c>
@@ -894,8 +1158,52 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="15">
+        <v>5723</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>5068</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>655</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" ref="AE8:AE30" si="3">AC8/AB8</f>
+        <v>0.88554953695614191</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" ref="AF8:AF30" si="4">AD8/AB8</f>
+        <v>0.11445046304385811</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>340</v>
+      </c>
+      <c r="AH8" s="22">
+        <f>AE8*(AB7+AG8)-AC7</f>
+        <v>276.04857592171993</v>
+      </c>
+      <c r="AI8" s="22">
+        <f>AG8-AH8</f>
+        <v>63.95142407828007</v>
+      </c>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8">
+        <f>AM7+C8</f>
+        <v>1128</v>
+      </c>
+      <c r="AN8">
+        <f>AM8/AB8</f>
+        <v>0.19709942337934649</v>
+      </c>
+      <c r="AO8" s="11">
+        <f>AB7-AB8+AG8</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1957</v>
       </c>
@@ -929,8 +1237,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB9" s="12">
+        <v>6068</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>5360</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>708</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="3"/>
+        <v>0.88332234673698085</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="4"/>
+        <v>0.11667765326301911</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>479</v>
+      </c>
+      <c r="AH9" s="22">
+        <f t="shared" ref="AH9:AH29" si="5">AE9*(AB8+AG9)-AC8</f>
+        <v>410.36519446275543</v>
+      </c>
+      <c r="AI9" s="22">
+        <f t="shared" ref="AI9:AI29" si="6">AG9-AH9</f>
+        <v>68.634805537244574</v>
+      </c>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9">
+        <f>AM8+C9</f>
+        <v>1607</v>
+      </c>
+      <c r="AN9">
+        <f>AM9/AB9</f>
+        <v>0.26483190507580751</v>
+      </c>
+      <c r="AO9" s="11">
+        <f t="shared" ref="AO9:AO29" si="7">AB8-AB9+AG9</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1958</v>
       </c>
@@ -964,8 +1315,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB10" s="15">
+        <v>6405</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>5628</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>777</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="3"/>
+        <v>0.87868852459016389</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="4"/>
+        <v>0.12131147540983607</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>342</v>
+      </c>
+      <c r="AH10" s="22">
+        <f t="shared" si="5"/>
+        <v>272.39344262295072</v>
+      </c>
+      <c r="AI10" s="22">
+        <f t="shared" si="6"/>
+        <v>69.606557377049285</v>
+      </c>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10">
+        <f>AM9+C10</f>
+        <v>1949</v>
+      </c>
+      <c r="AN10">
+        <f>AM10/AB10</f>
+        <v>0.3042935206869633</v>
+      </c>
+      <c r="AO10" s="11">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1959</v>
       </c>
@@ -999,8 +1393,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB11" s="12">
+        <v>6614</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>5751</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>863</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="3"/>
+        <v>0.86951920169337771</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="4"/>
+        <v>0.13048079830662232</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>815</v>
+      </c>
+      <c r="AH11" s="22">
+        <f t="shared" si="5"/>
+        <v>649.92863622618734</v>
+      </c>
+      <c r="AI11" s="22">
+        <f t="shared" si="6"/>
+        <v>165.07136377381266</v>
+      </c>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11">
+        <f>AM10+C11</f>
+        <v>2764</v>
+      </c>
+      <c r="AN11">
+        <f>AM11/AB11</f>
+        <v>0.4179014212276988</v>
+      </c>
+      <c r="AO11" s="11">
+        <f t="shared" si="7"/>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1960</v>
       </c>
@@ -1034,8 +1471,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB12" s="15">
+        <v>7064</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>6084</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>980</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="3"/>
+        <v>0.86126840317100795</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="4"/>
+        <v>0.13873159682899208</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>603</v>
+      </c>
+      <c r="AH12" s="22">
+        <f t="shared" si="5"/>
+        <v>464.77406568516471</v>
+      </c>
+      <c r="AI12" s="22">
+        <f t="shared" si="6"/>
+        <v>138.22593431483529</v>
+      </c>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12">
+        <f>AM11+C12</f>
+        <v>3367</v>
+      </c>
+      <c r="AN12">
+        <f>AM12/AB12</f>
+        <v>0.47664212910532278</v>
+      </c>
+      <c r="AO12" s="11">
+        <f t="shared" si="7"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1961</v>
       </c>
@@ -1069,8 +1549,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB13" s="12">
+        <v>7704</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>6527</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>1177</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="3"/>
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="4"/>
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>722</v>
+      </c>
+      <c r="AH13" s="22">
+        <f t="shared" si="5"/>
+        <v>512.47222222222172</v>
+      </c>
+      <c r="AI13" s="22">
+        <f t="shared" si="6"/>
+        <v>209.52777777777828</v>
+      </c>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13">
+        <f>AM12+C13</f>
+        <v>4089</v>
+      </c>
+      <c r="AN13">
+        <f>AM13/AB13</f>
+        <v>0.53076323987538943</v>
+      </c>
+      <c r="AO13" s="11">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1962</v>
       </c>
@@ -1104,8 +1627,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB14" s="15">
+        <v>8951</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>7551</v>
+      </c>
+      <c r="AD14" s="15">
+        <v>1400</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="3"/>
+        <v>0.84359289464864262</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="4"/>
+        <v>0.15640710535135738</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>680</v>
+      </c>
+      <c r="AH14" s="22">
+        <f t="shared" si="5"/>
+        <v>545.68282873421958</v>
+      </c>
+      <c r="AI14" s="22">
+        <f t="shared" si="6"/>
+        <v>134.31717126578042</v>
+      </c>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14">
+        <f>AM13+C14</f>
+        <v>4769</v>
+      </c>
+      <c r="AN14">
+        <f>AM14/AB14</f>
+        <v>0.53278963244330246</v>
+      </c>
+      <c r="AO14" s="11">
+        <f t="shared" si="7"/>
+        <v>-567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1963</v>
       </c>
@@ -1139,8 +1705,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB15" s="12">
+        <v>8649</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>7245</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>1404</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="3"/>
+        <v>0.83766909469302808</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="4"/>
+        <v>0.16233090530697192</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>802</v>
+      </c>
+      <c r="AH15" s="22">
+        <f t="shared" si="5"/>
+        <v>618.78668054110312</v>
+      </c>
+      <c r="AI15" s="22">
+        <f t="shared" si="6"/>
+        <v>183.21331945889688</v>
+      </c>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15">
+        <f>AM14+C15</f>
+        <v>5571</v>
+      </c>
+      <c r="AN15">
+        <f>AM15/AB15</f>
+        <v>0.64412070759625395</v>
+      </c>
+      <c r="AO15" s="11">
+        <f t="shared" si="7"/>
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1964</v>
       </c>
@@ -1174,8 +1783,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB16" s="15">
+        <v>9695</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>8147</v>
+      </c>
+      <c r="AD16" s="15">
+        <v>1548</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="3"/>
+        <v>0.84033006704486846</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="4"/>
+        <v>0.15966993295513152</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>848</v>
+      </c>
+      <c r="AH16" s="22">
+        <f t="shared" si="5"/>
+        <v>735.61464672511556</v>
+      </c>
+      <c r="AI16" s="22">
+        <f t="shared" si="6"/>
+        <v>112.38535327488444</v>
+      </c>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16">
+        <f>AM15+C16</f>
+        <v>6419</v>
+      </c>
+      <c r="AN16">
+        <f>AM16/AB16</f>
+        <v>0.66209386281588445</v>
+      </c>
+      <c r="AO16" s="11">
+        <f t="shared" si="7"/>
+        <v>-198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1965</v>
       </c>
@@ -1209,8 +1861,51 @@
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB17" s="12">
+        <v>10464</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>8800</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>1664</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="3"/>
+        <v>0.84097859327217128</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="4"/>
+        <v>0.15902140672782875</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>781</v>
+      </c>
+      <c r="AH17" s="22">
+        <f t="shared" si="5"/>
+        <v>663.09174311926654</v>
+      </c>
+      <c r="AI17" s="22">
+        <f t="shared" si="6"/>
+        <v>117.90825688073346</v>
+      </c>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17">
+        <f>AM16+C17</f>
+        <v>7200</v>
+      </c>
+      <c r="AN17">
+        <f>AM17/AB17</f>
+        <v>0.68807339449541283</v>
+      </c>
+      <c r="AO17" s="11">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1966</v>
       </c>
@@ -1244,8 +1939,51 @@
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB18" s="15">
+        <v>11072</v>
+      </c>
+      <c r="AC18" s="12">
+        <v>9308</v>
+      </c>
+      <c r="AD18" s="15">
+        <v>1764</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="3"/>
+        <v>0.84067919075144504</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="4"/>
+        <v>0.15932080924855491</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>684</v>
+      </c>
+      <c r="AH18" s="22">
+        <f t="shared" si="5"/>
+        <v>571.89161849710945</v>
+      </c>
+      <c r="AI18" s="22">
+        <f t="shared" si="6"/>
+        <v>112.10838150289055</v>
+      </c>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18">
+        <f>AM17+C18</f>
+        <v>7884</v>
+      </c>
+      <c r="AN18">
+        <f>AM18/AB18</f>
+        <v>0.71206647398843925</v>
+      </c>
+      <c r="AO18" s="11">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1967</v>
       </c>
@@ -1279,8 +2017,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB19" s="12">
+        <v>11824</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>9951</v>
+      </c>
+      <c r="AD19" s="12">
+        <v>1873</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="3"/>
+        <v>0.84159336941813256</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="4"/>
+        <v>0.15840663058186738</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>723</v>
+      </c>
+      <c r="AH19" s="22">
+        <f t="shared" si="5"/>
+        <v>618.5937922868743</v>
+      </c>
+      <c r="AI19" s="22">
+        <f t="shared" si="6"/>
+        <v>104.4062077131257</v>
+      </c>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19">
+        <f>AM18+C19</f>
+        <v>8607</v>
+      </c>
+      <c r="AN19">
+        <f>AM19/AB19</f>
+        <v>0.72792625169147496</v>
+      </c>
+      <c r="AO19" s="11">
+        <f t="shared" si="7"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1968</v>
       </c>
@@ -1314,8 +2095,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB20" s="15">
+        <v>12727</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>10769</v>
+      </c>
+      <c r="AD20" s="15">
+        <v>1958</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="3"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="4"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>660</v>
+      </c>
+      <c r="AH20" s="22">
+        <f t="shared" si="5"/>
+        <v>612.38461538461524</v>
+      </c>
+      <c r="AI20" s="22">
+        <f t="shared" si="6"/>
+        <v>47.615384615384755</v>
+      </c>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="26"/>
+      <c r="AM20">
+        <f>AM19+C20</f>
+        <v>9267</v>
+      </c>
+      <c r="AN20">
+        <f>AM20/AB20</f>
+        <v>0.72813703150781806</v>
+      </c>
+      <c r="AO20" s="11">
+        <f t="shared" si="7"/>
+        <v>-243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1969</v>
       </c>
@@ -1349,8 +2173,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB21" s="12">
+        <v>13465</v>
+      </c>
+      <c r="AC21" s="12">
+        <v>11415</v>
+      </c>
+      <c r="AD21" s="12">
+        <v>2050</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="3"/>
+        <v>0.84775343483104348</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="4"/>
+        <v>0.15224656516895654</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>619</v>
+      </c>
+      <c r="AH21" s="22">
+        <f t="shared" si="5"/>
+        <v>545.11734125510702</v>
+      </c>
+      <c r="AI21" s="22">
+        <f t="shared" si="6"/>
+        <v>73.882658744892979</v>
+      </c>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21">
+        <f>AM20+C21</f>
+        <v>9886</v>
+      </c>
+      <c r="AN21">
+        <f>AM21/AB21</f>
+        <v>0.73419977720014851</v>
+      </c>
+      <c r="AO21" s="11">
+        <f t="shared" si="7"/>
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1970</v>
       </c>
@@ -1384,8 +2251,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB22" s="15">
+        <v>14404</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>12638</v>
+      </c>
+      <c r="AD22" s="15">
+        <v>1766</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="3"/>
+        <v>0.87739516800888639</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="4"/>
+        <v>0.12260483199111358</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>631</v>
+      </c>
+      <c r="AH22" s="22">
+        <f>AE22*(AB21+AG22)-AC21</f>
+        <v>952.76228825326325</v>
+      </c>
+      <c r="AI22" s="22">
+        <f t="shared" si="6"/>
+        <v>-321.76228825326325</v>
+      </c>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22">
+        <f>AM21+C22</f>
+        <v>10517</v>
+      </c>
+      <c r="AN22">
+        <f>AM22/AB22</f>
+        <v>0.73014440433213001</v>
+      </c>
+      <c r="AO22" s="11">
+        <f t="shared" si="7"/>
+        <v>-308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1971</v>
       </c>
@@ -1419,8 +2329,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB23" s="12">
+        <v>15589</v>
+      </c>
+      <c r="AC23" s="12">
+        <v>13707</v>
+      </c>
+      <c r="AD23" s="12">
+        <v>1882</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="3"/>
+        <v>0.87927384694335753</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="4"/>
+        <v>0.1207261530566425</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>658</v>
+      </c>
+      <c r="AH23" s="22">
+        <f t="shared" si="5"/>
+        <v>605.62268266085084</v>
+      </c>
+      <c r="AI23" s="22">
+        <f t="shared" si="6"/>
+        <v>52.377317339149158</v>
+      </c>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23">
+        <f>AM22+C23</f>
+        <v>11175</v>
+      </c>
+      <c r="AN23">
+        <f>AM23/AB23</f>
+        <v>0.71685162614664188</v>
+      </c>
+      <c r="AO23" s="11">
+        <f t="shared" si="7"/>
+        <v>-527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1972</v>
       </c>
@@ -1454,8 +2407,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB24" s="15">
+        <v>16363</v>
+      </c>
+      <c r="AC24" s="12">
+        <v>14382</v>
+      </c>
+      <c r="AD24" s="15">
+        <v>1981</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="3"/>
+        <v>0.87893418077369678</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="4"/>
+        <v>0.12106581922630325</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>658</v>
+      </c>
+      <c r="AH24" s="22">
+        <f t="shared" si="5"/>
+        <v>573.04363503025161</v>
+      </c>
+      <c r="AI24" s="22">
+        <f t="shared" si="6"/>
+        <v>84.956364969748392</v>
+      </c>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24">
+        <f>AM23+C24</f>
+        <v>11833</v>
+      </c>
+      <c r="AN24">
+        <f>AM24/AB24</f>
+        <v>0.72315590050724199</v>
+      </c>
+      <c r="AO24" s="11">
+        <f t="shared" si="7"/>
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1973</v>
       </c>
@@ -1489,8 +2485,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB25" s="12">
+        <v>16377</v>
+      </c>
+      <c r="AC25" s="12">
+        <v>14378</v>
+      </c>
+      <c r="AD25" s="12">
+        <v>1999</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="3"/>
+        <v>0.87793857238810524</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="4"/>
+        <v>0.12206142761189473</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>761</v>
+      </c>
+      <c r="AH25" s="22">
+        <f t="shared" si="5"/>
+        <v>651.82011357391457</v>
+      </c>
+      <c r="AI25" s="22">
+        <f t="shared" si="6"/>
+        <v>109.17988642608543</v>
+      </c>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25">
+        <f>AM24+C25</f>
+        <v>12594</v>
+      </c>
+      <c r="AN25">
+        <f>AM25/AB25</f>
+        <v>0.7690053123282653</v>
+      </c>
+      <c r="AO25" s="11">
+        <f t="shared" si="7"/>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1974</v>
       </c>
@@ -1524,8 +2563,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB26" s="15">
+        <v>15188</v>
+      </c>
+      <c r="AC26" s="12">
+        <v>13172</v>
+      </c>
+      <c r="AD26" s="15">
+        <v>2016</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="3"/>
+        <v>0.86726362918093236</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="4"/>
+        <v>0.13273637081906769</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>760</v>
+      </c>
+      <c r="AH26" s="22">
+        <f t="shared" si="5"/>
+        <v>484.29681327363869</v>
+      </c>
+      <c r="AI26" s="22">
+        <f t="shared" si="6"/>
+        <v>275.70318672636131</v>
+      </c>
+      <c r="AJ26" s="22"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26">
+        <f>AM25+C26</f>
+        <v>13354</v>
+      </c>
+      <c r="AN26">
+        <f>AM26/AB26</f>
+        <v>0.87924677376876481</v>
+      </c>
+      <c r="AO26" s="11">
+        <f t="shared" si="7"/>
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1975</v>
       </c>
@@ -1559,8 +2641,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB27" s="12">
+        <v>16260</v>
+      </c>
+      <c r="AC27" s="12">
+        <v>14044</v>
+      </c>
+      <c r="AD27" s="12">
+        <v>2216</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="3"/>
+        <v>0.86371463714637142</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="4"/>
+        <v>0.13628536285362855</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>869</v>
+      </c>
+      <c r="AH27" s="22">
+        <f t="shared" si="5"/>
+        <v>696.66592865928578</v>
+      </c>
+      <c r="AI27" s="22">
+        <f t="shared" si="6"/>
+        <v>172.33407134071422</v>
+      </c>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27">
+        <f>AM26+C27</f>
+        <v>14223</v>
+      </c>
+      <c r="AN27">
+        <f>AM27/AB27</f>
+        <v>0.8747232472324723</v>
+      </c>
+      <c r="AO27" s="11">
+        <f t="shared" si="7"/>
+        <v>-203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1976</v>
       </c>
@@ -1597,8 +2722,52 @@
       <c r="K28" s="7">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB28" s="15">
+        <v>17333</v>
+      </c>
+      <c r="AC28" s="12">
+        <v>14989</v>
+      </c>
+      <c r="AD28" s="15">
+        <v>2344</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="3"/>
+        <v>0.86476663012750243</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="4"/>
+        <v>0.13523336987249754</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>1035</v>
+      </c>
+      <c r="AH28" s="22">
+        <f t="shared" si="5"/>
+        <v>912.1388680551554</v>
+      </c>
+      <c r="AI28" s="22">
+        <f t="shared" si="6"/>
+        <v>122.8611319448446</v>
+      </c>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28">
+        <f>AM27+C28</f>
+        <v>15258</v>
+      </c>
+      <c r="AN28">
+        <f>AM28/AB28</f>
+        <v>0.88028615934921828</v>
+      </c>
+      <c r="AO28" s="11">
+        <f t="shared" si="7"/>
+        <v>-38</v>
+      </c>
+      <c r="AP28" s="11"/>
+    </row>
+    <row r="29" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1977</v>
       </c>
@@ -1700,8 +2869,51 @@
         <f>C29*U29</f>
         <v>16.601122082585281</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB29" s="12">
+        <v>18405</v>
+      </c>
+      <c r="AC29" s="12">
+        <v>15904</v>
+      </c>
+      <c r="AD29" s="12">
+        <v>2501</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="3"/>
+        <v>0.86411301276826946</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="4"/>
+        <v>0.13588698723173051</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>1197</v>
+      </c>
+      <c r="AH29" s="22">
+        <f t="shared" si="5"/>
+        <v>1023.0141265960337</v>
+      </c>
+      <c r="AI29" s="22">
+        <f t="shared" si="6"/>
+        <v>173.98587340396625</v>
+      </c>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29">
+        <f>AM28+C29</f>
+        <v>16455</v>
+      </c>
+      <c r="AN29">
+        <f>AM29/AB29</f>
+        <v>0.89405052974735122</v>
+      </c>
+      <c r="AO29" s="11">
+        <f t="shared" si="7"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1978</v>
       </c>
@@ -1736,11 +2948,11 @@
         <v>160</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" ref="K30:K71" si="3">I30/(I30+J30)</f>
+        <f t="shared" ref="K30:K71" si="8">I30/(I30+J30)</f>
         <v>0.8623063683304647</v>
       </c>
       <c r="L30" s="7">
-        <f t="shared" ref="L30:L71" si="4">1-K30</f>
+        <f t="shared" ref="L30:L71" si="9">1-K30</f>
         <v>0.1376936316695353</v>
       </c>
       <c r="M30" s="5">
@@ -1752,59 +2964,86 @@
         <v>12.106824925816028</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" ref="O30:O71" si="5">E30+F30+G30+H30+M30+N30</f>
+        <f t="shared" ref="O30:O71" si="10">E30+F30+G30+H30+M30+N30</f>
         <v>1247</v>
       </c>
       <c r="P30">
-        <f t="shared" ref="P30:P71" si="6">E30/O30</f>
+        <f t="shared" ref="P30:P71" si="11">E30/O30</f>
         <v>0.80352846832397751</v>
       </c>
       <c r="Q30">
-        <f t="shared" ref="Q30:Q71" si="7">F30/O30</f>
+        <f t="shared" ref="Q30:Q71" si="12">F30/O30</f>
         <v>0.12830793905372895</v>
       </c>
       <c r="R30">
-        <f t="shared" ref="R30:R71" si="8">G30/O30</f>
+        <f t="shared" ref="R30:R71" si="13">G30/O30</f>
         <v>0</v>
       </c>
       <c r="S30">
-        <f t="shared" ref="S30:S71" si="9">H30/O30</f>
+        <f t="shared" ref="S30:S71" si="14">H30/O30</f>
         <v>0</v>
       </c>
       <c r="T30">
-        <f t="shared" ref="T30:T71" si="10">M30/O30</f>
+        <f t="shared" ref="T30:T71" si="15">M30/O30</f>
         <v>5.8454831655319943E-2</v>
       </c>
       <c r="U30">
-        <f t="shared" ref="U30:U71" si="11">N30/O30</f>
+        <f t="shared" ref="U30:U71" si="16">N30/O30</f>
         <v>9.7087609669735588E-3</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" ref="V30:V71" si="12">C30*P30</f>
+        <f t="shared" ref="V30:V71" si="17">C30*P30</f>
         <v>963.43063352044908</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" ref="W30:W71" si="13">Q30*C30</f>
+        <f t="shared" ref="W30:W71" si="18">Q30*C30</f>
         <v>153.841218925421</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" ref="X30:X71" si="14">C30*R30</f>
+        <f t="shared" ref="X30:X71" si="19">C30*R30</f>
         <v>0</v>
       </c>
       <c r="Y30" s="5">
-        <f t="shared" ref="Y30:Y71" si="15">C30*S30</f>
+        <f t="shared" ref="Y30:Y71" si="20">C30*S30</f>
         <v>0</v>
       </c>
       <c r="Z30" s="5">
-        <f t="shared" ref="Z30:Z71" si="16">T30*C30</f>
+        <f t="shared" ref="Z30:Z71" si="21">T30*C30</f>
         <v>70.087343154728615</v>
       </c>
       <c r="AA30" s="5">
-        <f t="shared" ref="AA30:AA71" si="17">C30*U30</f>
+        <f t="shared" ref="AA30:AA71" si="22">C30*U30</f>
         <v>11.640804399401297</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB30" s="15">
+        <v>19577</v>
+      </c>
+      <c r="AC30" s="12">
+        <v>16899</v>
+      </c>
+      <c r="AD30" s="15">
+        <v>2678</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="3"/>
+        <v>0.86320682433467844</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="4"/>
+        <v>0.13679317566532154</v>
+      </c>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30">
+        <f>AM29+C30</f>
+        <v>17654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1979</v>
       </c>
@@ -1839,75 +3078,102 @@
         <v>173</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.85923515052888533</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.14076484947111467</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" ref="M31:M71" si="18">D31*K30</f>
+        <f t="shared" ref="M31:M71" si="23">D31*K30</f>
         <v>105.20137693631669</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" ref="N31:N71" si="19">D31-M31</f>
+        <f t="shared" ref="N31:N71" si="24">D31-M31</f>
         <v>16.798623063683308</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1351</v>
       </c>
       <c r="P31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.78164322723908219</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.12805329385640266</v>
       </c>
       <c r="R31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7.7869264941759206E-2</v>
       </c>
       <c r="U31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.2434213962755965E-2</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>952.82309400444115</v>
       </c>
       <c r="W31" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>156.09696521095483</v>
       </c>
       <c r="X31" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y31" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z31" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>94.922633964004476</v>
       </c>
       <c r="AA31" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>15.157306820599521</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB31" s="12">
+        <v>20779</v>
+      </c>
+      <c r="AC31" s="12">
+        <v>17922</v>
+      </c>
+      <c r="AD31" s="12">
+        <v>2857</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" ref="AE31:AE71" si="25">AC31/AB31</f>
+        <v>0.86250541412002502</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" ref="AF31:AF71" si="26">AD31/AB31</f>
+        <v>0.13749458587997498</v>
+      </c>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="25"/>
+      <c r="AL31" s="25"/>
+      <c r="AM31">
+        <f>AM30+C31</f>
+        <v>18873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1980</v>
       </c>
@@ -1942,75 +3208,102 @@
         <v>194</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.85247148288973384</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.14752851711026616</v>
       </c>
       <c r="M32" s="5">
+        <f t="shared" si="23"/>
+        <v>106.54515866558178</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="24"/>
+        <v>17.454841334418219</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="10"/>
+        <v>1439</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="11"/>
+        <v>0.77901320361362059</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="12"/>
+        <v>0.13481584433634469</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="15"/>
+        <v>7.4041110955928968E-2</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="16"/>
+        <v>1.2129841094105781E-2</v>
+      </c>
+      <c r="V32" s="5">
+        <f t="shared" si="17"/>
+        <v>1029.8554551772065</v>
+      </c>
+      <c r="W32" s="5">
         <f t="shared" si="18"/>
-        <v>106.54515866558178</v>
-      </c>
-      <c r="N32" s="5">
+        <v>178.22654621264769</v>
+      </c>
+      <c r="X32" s="5">
         <f t="shared" si="19"/>
-        <v>17.454841334418219</v>
-      </c>
-      <c r="O32" s="5">
-        <f t="shared" si="5"/>
-        <v>1439</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="6"/>
-        <v>0.77901320361362059</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="7"/>
-        <v>0.13481584433634469</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="10"/>
-        <v>7.4041110955928968E-2</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="11"/>
-        <v>1.2129841094105781E-2</v>
-      </c>
-      <c r="V32" s="5">
-        <f t="shared" si="12"/>
-        <v>1029.8554551772065</v>
-      </c>
-      <c r="W32" s="5">
-        <f t="shared" si="13"/>
-        <v>178.22654621264769</v>
-      </c>
-      <c r="X32" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y32" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z32" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>97.882348683738101</v>
       </c>
       <c r="AA32" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>16.035649926407842</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB32" s="15">
+        <v>22074</v>
+      </c>
+      <c r="AC32" s="12">
+        <v>19028</v>
+      </c>
+      <c r="AD32" s="15">
+        <v>3046</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="25"/>
+        <v>0.86200960405907401</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="26"/>
+        <v>0.13799039594092596</v>
+      </c>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="22"/>
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="25"/>
+      <c r="AL32" s="25"/>
+      <c r="AM32">
+        <f>AM31+C32</f>
+        <v>20195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1981</v>
       </c>
@@ -2045,75 +3338,101 @@
         <v>153</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.88573562359970126</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.11426437640029874</v>
       </c>
       <c r="M33" s="5">
+        <f t="shared" si="23"/>
+        <v>172.19923954372624</v>
+      </c>
+      <c r="N33" s="5">
+        <f t="shared" si="24"/>
+        <v>29.800760456273764</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="10"/>
+        <v>1541</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="11"/>
+        <v>0.76963011031797535</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="12"/>
+        <v>9.928617780661908E-2</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="15"/>
+        <v>0.11174512624511761</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="16"/>
+        <v>1.9338585630287973E-2</v>
+      </c>
+      <c r="V33" s="5">
+        <f t="shared" si="17"/>
+        <v>1025.9169370538611</v>
+      </c>
+      <c r="W33" s="5">
         <f t="shared" si="18"/>
-        <v>172.19923954372624</v>
-      </c>
-      <c r="N33" s="5">
+        <v>132.34847501622323</v>
+      </c>
+      <c r="X33" s="5">
         <f t="shared" si="19"/>
-        <v>29.800760456273764</v>
-      </c>
-      <c r="O33" s="5">
-        <f t="shared" si="5"/>
-        <v>1541</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="6"/>
-        <v>0.76963011031797535</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="7"/>
-        <v>9.928617780661908E-2</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="10"/>
-        <v>0.11174512624511761</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="11"/>
-        <v>1.9338585630287973E-2</v>
-      </c>
-      <c r="V33" s="5">
-        <f t="shared" si="12"/>
-        <v>1025.9169370538611</v>
-      </c>
-      <c r="W33" s="5">
-        <f t="shared" si="13"/>
-        <v>132.34847501622323</v>
-      </c>
-      <c r="X33" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y33" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z33" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>148.95625328474176</v>
       </c>
       <c r="AA33" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>25.778334645173867</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB33" s="12">
+        <v>23270</v>
+      </c>
+      <c r="AC33" s="12">
+        <v>20031</v>
+      </c>
+      <c r="AD33" s="12">
+        <v>3239</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="25"/>
+        <v>0.86080790717662226</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="26"/>
+        <v>0.13919209282337774</v>
+      </c>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33">
+        <f>AM32+C33</f>
+        <v>21528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1982</v>
       </c>
@@ -2148,75 +3467,101 @@
         <v>145</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.91642651296829969</v>
       </c>
       <c r="L34" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8.3573487031700311E-2</v>
       </c>
       <c r="M34" s="5">
+        <f t="shared" si="23"/>
+        <v>77.058999253174008</v>
+      </c>
+      <c r="N34" s="5">
+        <f t="shared" si="24"/>
+        <v>9.941000746825992</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" si="10"/>
+        <v>1822</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="11"/>
+        <v>0.87266739846322727</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="12"/>
+        <v>7.9582875960482982E-2</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="15"/>
+        <v>4.2293632960029644E-2</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="16"/>
+        <v>5.4560926162601489E-3</v>
+      </c>
+      <c r="V34" s="5">
+        <f t="shared" si="17"/>
+        <v>1219.9890230515916</v>
+      </c>
+      <c r="W34" s="5">
         <f t="shared" si="18"/>
-        <v>77.058999253174008</v>
-      </c>
-      <c r="N34" s="5">
+        <v>111.2568605927552</v>
+      </c>
+      <c r="X34" s="5">
         <f t="shared" si="19"/>
-        <v>9.941000746825992</v>
-      </c>
-      <c r="O34" s="5">
-        <f t="shared" si="5"/>
-        <v>1822</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="6"/>
-        <v>0.87266739846322727</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="7"/>
-        <v>7.9582875960482982E-2</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="10"/>
-        <v>4.2293632960029644E-2</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="11"/>
-        <v>5.4560926162601489E-3</v>
-      </c>
-      <c r="V34" s="5">
-        <f t="shared" si="12"/>
-        <v>1219.9890230515916</v>
-      </c>
-      <c r="W34" s="5">
-        <f t="shared" si="13"/>
-        <v>111.2568605927552</v>
-      </c>
-      <c r="X34" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y34" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z34" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>59.126498878121438</v>
       </c>
       <c r="AA34" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>7.6276174775316878</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB34" s="15">
+        <v>24634</v>
+      </c>
+      <c r="AC34" s="12">
+        <v>21213</v>
+      </c>
+      <c r="AD34" s="15">
+        <v>3421</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="25"/>
+        <v>0.86112689778355123</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="26"/>
+        <v>0.1388731022164488</v>
+      </c>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="27"/>
+      <c r="AM34">
+        <f>AM33+C34</f>
+        <v>22926</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1983</v>
       </c>
@@ -2251,75 +3596,101 @@
         <v>159</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.88779110797459426</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.11220889202540574</v>
       </c>
       <c r="M35" s="5">
+        <f t="shared" si="23"/>
+        <v>64.149855907780974</v>
+      </c>
+      <c r="N35" s="5">
+        <f t="shared" si="24"/>
+        <v>5.8501440922190255</v>
+      </c>
+      <c r="O35" s="5">
+        <f t="shared" si="10"/>
+        <v>1487</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="11"/>
+        <v>0.84599865501008742</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="12"/>
+        <v>0.10692669804976462</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="15"/>
+        <v>4.3140454544573624E-2</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="16"/>
+        <v>3.9341923955743281E-3</v>
+      </c>
+      <c r="V35" s="5">
+        <f t="shared" si="17"/>
+        <v>1186.9361129791525</v>
+      </c>
+      <c r="W35" s="5">
         <f t="shared" si="18"/>
-        <v>64.149855907780974</v>
-      </c>
-      <c r="N35" s="5">
+        <v>150.01815736381977</v>
+      </c>
+      <c r="X35" s="5">
         <f t="shared" si="19"/>
-        <v>5.8501440922190255</v>
-      </c>
-      <c r="O35" s="5">
-        <f t="shared" si="5"/>
-        <v>1487</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="6"/>
-        <v>0.84599865501008742</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="7"/>
-        <v>0.10692669804976462</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="10"/>
-        <v>4.3140454544573624E-2</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="11"/>
-        <v>3.9341923955743281E-3</v>
-      </c>
-      <c r="V35" s="5">
-        <f t="shared" si="12"/>
-        <v>1186.9361129791525</v>
-      </c>
-      <c r="W35" s="5">
-        <f t="shared" si="13"/>
-        <v>150.01815736381977</v>
-      </c>
-      <c r="X35" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y35" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z35" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>60.526057726036797</v>
       </c>
       <c r="AA35" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>5.519671930990782</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB35" s="12">
+        <v>26017</v>
+      </c>
+      <c r="AC35" s="12">
+        <v>22423</v>
+      </c>
+      <c r="AD35" s="12">
+        <v>3594</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="25"/>
+        <v>0.86185955336895104</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="26"/>
+        <v>0.13814044663104894</v>
+      </c>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="27"/>
+      <c r="AM35">
+        <f>AM34+C35</f>
+        <v>24329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1984</v>
       </c>
@@ -2354,75 +3725,101 @@
         <v>251</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.84601226993865031</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.15398773006134969</v>
       </c>
       <c r="M36" s="5">
+        <f t="shared" si="23"/>
+        <v>393.29146083274526</v>
+      </c>
+      <c r="N36" s="5">
+        <f t="shared" si="24"/>
+        <v>49.708539167254742</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="10"/>
+        <v>2073</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="11"/>
+        <v>0.66521948866377234</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="12"/>
+        <v>0.12108055957549445</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="15"/>
+        <v>0.18972091694777871</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="16"/>
+        <v>2.397903481295453E-2</v>
+      </c>
+      <c r="V36" s="5">
+        <f t="shared" si="17"/>
+        <v>1031.7554269175109</v>
+      </c>
+      <c r="W36" s="5">
         <f t="shared" si="18"/>
-        <v>393.29146083274526</v>
-      </c>
-      <c r="N36" s="5">
+        <v>187.79594790159189</v>
+      </c>
+      <c r="X36" s="5">
         <f t="shared" si="19"/>
-        <v>49.708539167254742</v>
-      </c>
-      <c r="O36" s="5">
-        <f t="shared" si="5"/>
-        <v>2073</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="6"/>
-        <v>0.66521948866377234</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="7"/>
-        <v>0.12108055957549445</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="10"/>
-        <v>0.18972091694777871</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="11"/>
-        <v>2.397903481295453E-2</v>
-      </c>
-      <c r="V36" s="5">
-        <f t="shared" si="12"/>
-        <v>1031.7554269175109</v>
-      </c>
-      <c r="W36" s="5">
-        <f t="shared" si="13"/>
-        <v>187.79594790159189</v>
-      </c>
-      <c r="X36" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y36" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z36" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>294.25714218600478</v>
       </c>
       <c r="AA36" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>37.191482994892475</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB36" s="15">
+        <v>27567</v>
+      </c>
+      <c r="AC36" s="12">
+        <v>23735</v>
+      </c>
+      <c r="AD36" s="15">
+        <v>3832</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="25"/>
+        <v>0.86099321652700689</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="26"/>
+        <v>0.13900678347299308</v>
+      </c>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="27"/>
+      <c r="AM36">
+        <f>AM35+C36</f>
+        <v>25880</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1985</v>
       </c>
@@ -2457,75 +3854,101 @@
         <v>218</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.87288629737609325</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.12711370262390675</v>
       </c>
       <c r="M37" s="5">
+        <f t="shared" si="23"/>
+        <v>167.51042944785277</v>
+      </c>
+      <c r="N37" s="5">
+        <f t="shared" si="24"/>
+        <v>30.489570552147228</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" si="10"/>
+        <v>1913</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="11"/>
+        <v>0.78254051228437005</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="12"/>
+        <v>0.11395713538944068</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="15"/>
+        <v>8.7564260035469299E-2</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="16"/>
+        <v>1.5938092290719932E-2</v>
+      </c>
+      <c r="V37" s="5">
+        <f t="shared" si="17"/>
+        <v>1241.8917929952952</v>
+      </c>
+      <c r="W37" s="5">
         <f t="shared" si="18"/>
-        <v>167.51042944785277</v>
-      </c>
-      <c r="N37" s="5">
+        <v>180.84997386304235</v>
+      </c>
+      <c r="X37" s="5">
         <f t="shared" si="19"/>
-        <v>30.489570552147228</v>
-      </c>
-      <c r="O37" s="5">
-        <f t="shared" si="5"/>
-        <v>1913</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="6"/>
-        <v>0.78254051228437005</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="7"/>
-        <v>0.11395713538944068</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="10"/>
-        <v>8.7564260035469299E-2</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="11"/>
-        <v>1.5938092290719932E-2</v>
-      </c>
-      <c r="V37" s="5">
-        <f t="shared" si="12"/>
-        <v>1241.8917929952952</v>
-      </c>
-      <c r="W37" s="5">
-        <f t="shared" si="13"/>
-        <v>180.84997386304235</v>
-      </c>
-      <c r="X37" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y37" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z37" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>138.96448067628978</v>
       </c>
       <c r="AA37" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>25.293752465372531</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB37" s="16">
+        <v>29151</v>
+      </c>
+      <c r="AC37" s="12">
+        <v>25122</v>
+      </c>
+      <c r="AD37" s="12">
+        <v>4029</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="25"/>
+        <v>0.86178861788617889</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="26"/>
+        <v>0.13821138211382114</v>
+      </c>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="27"/>
+      <c r="AL37" s="27"/>
+      <c r="AM37">
+        <f>AM36+C37</f>
+        <v>27467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1986</v>
       </c>
@@ -2560,75 +3983,101 @@
         <v>287</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.8456989247311828</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.1543010752688172</v>
       </c>
       <c r="M38" s="5">
+        <f t="shared" si="23"/>
+        <v>89.034402332361509</v>
+      </c>
+      <c r="N38" s="5">
+        <f t="shared" si="24"/>
+        <v>12.965597667638491</v>
+      </c>
+      <c r="O38" s="5">
+        <f t="shared" si="10"/>
+        <v>1962</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="11"/>
+        <v>0.80173292558613662</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="12"/>
+        <v>0.14627930682976553</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="15"/>
+        <v>4.5379409955332066E-2</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="16"/>
+        <v>6.608357628765796E-3</v>
+      </c>
+      <c r="V38" s="5">
+        <f t="shared" si="17"/>
+        <v>1655.5784913353721</v>
+      </c>
+      <c r="W38" s="5">
         <f t="shared" si="18"/>
-        <v>89.034402332361509</v>
-      </c>
-      <c r="N38" s="5">
+        <v>302.06676860346585</v>
+      </c>
+      <c r="X38" s="5">
         <f t="shared" si="19"/>
-        <v>12.965597667638491</v>
-      </c>
-      <c r="O38" s="5">
-        <f t="shared" si="5"/>
-        <v>1962</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="6"/>
-        <v>0.80173292558613662</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="7"/>
-        <v>0.14627930682976553</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="10"/>
-        <v>4.5379409955332066E-2</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="11"/>
-        <v>6.608357628765796E-3</v>
-      </c>
-      <c r="V38" s="5">
-        <f t="shared" si="12"/>
-        <v>1655.5784913353721</v>
-      </c>
-      <c r="W38" s="5">
-        <f t="shared" si="13"/>
-        <v>302.06676860346585</v>
-      </c>
-      <c r="X38" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y38" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z38" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>93.70848155776072</v>
       </c>
       <c r="AA38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>13.646258503401368</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB38" s="17">
+        <v>31514</v>
+      </c>
+      <c r="AC38" s="12">
+        <v>27151</v>
+      </c>
+      <c r="AD38" s="15">
+        <v>4363</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="25"/>
+        <v>0.86155359522751795</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="26"/>
+        <v>0.13844640477248207</v>
+      </c>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="27"/>
+      <c r="AL38" s="27"/>
+      <c r="AM38">
+        <f>AM37+C38</f>
+        <v>29532</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1987</v>
       </c>
@@ -2663,75 +4112,101 @@
         <v>305</v>
       </c>
       <c r="K39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.88067292644757433</v>
       </c>
       <c r="L39" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.11932707355242567</v>
       </c>
       <c r="M39" s="5">
+        <f t="shared" si="23"/>
+        <v>46.513440860215056</v>
+      </c>
+      <c r="N39" s="5">
+        <f t="shared" si="24"/>
+        <v>8.4865591397849443</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="10"/>
+        <v>2611</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="11"/>
+        <v>0.86212179241669862</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="12"/>
+        <v>0.11681348142474147</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="15"/>
+        <v>1.781441626205096E-2</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="16"/>
+        <v>3.2503098965089789E-3</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" si="17"/>
+        <v>2240.6545384909996</v>
+      </c>
+      <c r="W39" s="5">
         <f t="shared" si="18"/>
-        <v>46.513440860215056</v>
-      </c>
-      <c r="N39" s="5">
+        <v>303.59823822290309</v>
+      </c>
+      <c r="X39" s="5">
         <f t="shared" si="19"/>
-        <v>8.4865591397849443</v>
-      </c>
-      <c r="O39" s="5">
-        <f t="shared" si="5"/>
-        <v>2611</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="6"/>
-        <v>0.86212179241669862</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="7"/>
-        <v>0.11681348142474147</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="10"/>
-        <v>1.781441626205096E-2</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="11"/>
-        <v>3.2503098965089789E-3</v>
-      </c>
-      <c r="V39" s="5">
-        <f t="shared" si="12"/>
-        <v>2240.6545384909996</v>
-      </c>
-      <c r="W39" s="5">
-        <f t="shared" si="13"/>
-        <v>303.59823822290309</v>
-      </c>
-      <c r="X39" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y39" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z39" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>46.299667865070447</v>
       </c>
       <c r="AA39" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>8.447555421026836</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB39" s="16">
+        <v>34087</v>
+      </c>
+      <c r="AC39" s="12">
+        <v>29413</v>
+      </c>
+      <c r="AD39" s="12">
+        <v>4674</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="25"/>
+        <v>0.86288027693842229</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="26"/>
+        <v>0.13711972306157771</v>
+      </c>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="27"/>
+      <c r="AL39" s="27"/>
+      <c r="AM39">
+        <f>AM38+C39</f>
+        <v>32131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1988</v>
       </c>
@@ -2766,75 +4241,101 @@
         <v>378</v>
       </c>
       <c r="K40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.84665314401622715</v>
       </c>
       <c r="L40" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.15334685598377285</v>
       </c>
       <c r="M40" s="5">
+        <f t="shared" si="23"/>
+        <v>128.57824726134587</v>
+      </c>
+      <c r="N40" s="5">
+        <f t="shared" si="24"/>
+        <v>17.421752738654135</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="10"/>
+        <v>2611</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="11"/>
+        <v>0.7993106089620835</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="12"/>
+        <v>0.1447721179624665</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="15"/>
+        <v>4.9244828518324728E-2</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="16"/>
+        <v>6.6724445571252908E-3</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" si="17"/>
+        <v>2156.5400229797015</v>
+      </c>
+      <c r="W40" s="5">
         <f t="shared" si="18"/>
-        <v>128.57824726134587</v>
-      </c>
-      <c r="N40" s="5">
+        <v>390.59517426273464</v>
+      </c>
+      <c r="X40" s="5">
         <f t="shared" si="19"/>
-        <v>17.421752738654135</v>
-      </c>
-      <c r="O40" s="5">
-        <f t="shared" si="5"/>
-        <v>2611</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="6"/>
-        <v>0.7993106089620835</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="7"/>
-        <v>0.1447721179624665</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="10"/>
-        <v>4.9244828518324728E-2</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="11"/>
-        <v>6.6724445571252908E-3</v>
-      </c>
-      <c r="V40" s="5">
-        <f t="shared" si="12"/>
-        <v>2156.5400229797015</v>
-      </c>
-      <c r="W40" s="5">
-        <f t="shared" si="13"/>
-        <v>390.59517426273464</v>
-      </c>
-      <c r="X40" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y40" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z40" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>132.86254734244011</v>
       </c>
       <c r="AA40" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>18.002255415124036</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB40" s="17">
+        <v>36747</v>
+      </c>
+      <c r="AC40" s="12">
+        <v>31649</v>
+      </c>
+      <c r="AD40" s="15">
+        <v>5098</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="25"/>
+        <v>0.86126758646964374</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="26"/>
+        <v>0.13873241353035623</v>
+      </c>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="27"/>
+      <c r="AL40" s="27"/>
+      <c r="AM40">
+        <f>AM39+C40</f>
+        <v>34829</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1989</v>
       </c>
@@ -2869,75 +4370,101 @@
         <v>587</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.80652603823335534</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.19347396176664466</v>
       </c>
       <c r="M41" s="5">
+        <f t="shared" si="23"/>
+        <v>200.65679513184583</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" si="24"/>
+        <v>36.343204868154174</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="10"/>
+        <v>3271</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="11"/>
+        <v>0.74808926933659436</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="12"/>
+        <v>0.17945582390706205</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="15"/>
+        <v>6.1344174604660906E-2</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="16"/>
+        <v>1.1110732151682718E-2</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="17"/>
+        <v>2194.1458269642312</v>
+      </c>
+      <c r="W41" s="5">
         <f t="shared" si="18"/>
-        <v>200.65679513184583</v>
-      </c>
-      <c r="N41" s="5">
+        <v>526.34393151941299</v>
+      </c>
+      <c r="X41" s="5">
         <f t="shared" si="19"/>
-        <v>36.343204868154174</v>
-      </c>
-      <c r="O41" s="5">
-        <f t="shared" si="5"/>
-        <v>3271</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="6"/>
-        <v>0.74808926933659436</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="7"/>
-        <v>0.17945582390706205</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="10"/>
-        <v>6.1344174604660906E-2</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="11"/>
-        <v>1.1110732151682718E-2</v>
-      </c>
-      <c r="V41" s="5">
-        <f t="shared" si="12"/>
-        <v>2194.1458269642312</v>
-      </c>
-      <c r="W41" s="5">
-        <f t="shared" si="13"/>
-        <v>526.34393151941299</v>
-      </c>
-      <c r="X41" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y41" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z41" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>179.92246411547043</v>
       </c>
       <c r="AA41" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>32.587777400885415</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB41" s="16">
+        <v>39672</v>
+      </c>
+      <c r="AC41" s="12">
+        <v>33995</v>
+      </c>
+      <c r="AD41" s="12">
+        <v>5677</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="25"/>
+        <v>0.85690159306311753</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="26"/>
+        <v>0.14309840693688244</v>
+      </c>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="27"/>
+      <c r="AL41" s="27"/>
+      <c r="AM41">
+        <f>AM40+C41</f>
+        <v>37762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1990</v>
       </c>
@@ -2972,75 +4499,96 @@
         <v>515</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.80092771550057984</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.19907228449942016</v>
       </c>
       <c r="M42" s="5">
+        <f t="shared" si="23"/>
+        <v>271.79927488464074</v>
+      </c>
+      <c r="N42" s="5">
+        <f t="shared" si="24"/>
+        <v>65.200725115359262</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="10"/>
+        <v>2924</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="11"/>
+        <v>0.70861833105335159</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="12"/>
+        <v>0.17612859097127223</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="15"/>
+        <v>9.2954608373680137E-2</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="16"/>
+        <v>2.2298469601696055E-2</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" si="17"/>
+        <v>1982.7140902872777</v>
+      </c>
+      <c r="W42" s="5">
         <f t="shared" si="18"/>
-        <v>271.79927488464074</v>
-      </c>
-      <c r="N42" s="5">
+        <v>492.80779753761971</v>
+      </c>
+      <c r="X42" s="5">
         <f t="shared" si="19"/>
-        <v>65.200725115359262</v>
-      </c>
-      <c r="O42" s="5">
-        <f t="shared" si="5"/>
-        <v>2924</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="6"/>
-        <v>0.70861833105335159</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="7"/>
-        <v>0.17612859097127223</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <f t="shared" si="10"/>
-        <v>9.2954608373680137E-2</v>
-      </c>
-      <c r="U42">
-        <f t="shared" si="11"/>
-        <v>2.2298469601696055E-2</v>
-      </c>
-      <c r="V42" s="5">
-        <f t="shared" si="12"/>
-        <v>1982.7140902872777</v>
-      </c>
-      <c r="W42" s="5">
-        <f t="shared" si="13"/>
-        <v>492.80779753761971</v>
-      </c>
-      <c r="X42" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y42" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z42" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>260.08699422955704</v>
       </c>
       <c r="AA42" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>62.39111794554556</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB42" s="15">
+        <v>42458</v>
+      </c>
+      <c r="AC42" s="12">
+        <v>36238</v>
+      </c>
+      <c r="AD42" s="15">
+        <v>6220</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="25"/>
+        <v>0.85350228461067412</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="26"/>
+        <v>0.14649771538932593</v>
+      </c>
+      <c r="AM42">
+        <f>AM41+C42</f>
+        <v>40560</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1991</v>
       </c>
@@ -3075,75 +4623,96 @@
         <v>568</v>
       </c>
       <c r="K43" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.80386740331491713</v>
       </c>
       <c r="L43" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.19613259668508287</v>
       </c>
       <c r="M43" s="5">
+        <f t="shared" si="23"/>
+        <v>198.63007344414379</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" si="24"/>
+        <v>49.36992655585621</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="10"/>
+        <v>3144</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="11"/>
+        <v>0.74045801526717558</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="12"/>
+        <v>0.1806615776081425</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="15"/>
+        <v>6.3177504276127158E-2</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="16"/>
+        <v>1.5702902848554773E-2</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" si="17"/>
+        <v>2194.7175572519086</v>
+      </c>
+      <c r="W43" s="5">
         <f t="shared" si="18"/>
-        <v>198.63007344414379</v>
-      </c>
-      <c r="N43" s="5">
+        <v>535.48091603053433</v>
+      </c>
+      <c r="X43" s="5">
         <f t="shared" si="19"/>
-        <v>49.36992655585621</v>
-      </c>
-      <c r="O43" s="5">
-        <f t="shared" si="5"/>
-        <v>3144</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="6"/>
-        <v>0.74045801526717558</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="7"/>
-        <v>0.1806615776081425</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="10"/>
-        <v>6.3177504276127158E-2</v>
-      </c>
-      <c r="U43">
-        <f t="shared" si="11"/>
-        <v>1.5702902848554773E-2</v>
-      </c>
-      <c r="V43" s="5">
-        <f t="shared" si="12"/>
-        <v>2194.7175572519086</v>
-      </c>
-      <c r="W43" s="5">
-        <f t="shared" si="13"/>
-        <v>535.48091603053433</v>
-      </c>
-      <c r="X43" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>187.2581226744409</v>
       </c>
       <c r="AA43" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>46.543404043116347</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB43" s="16">
+        <v>45401</v>
+      </c>
+      <c r="AC43" s="12">
+        <v>38356</v>
+      </c>
+      <c r="AD43" s="12">
+        <v>7045</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="25"/>
+        <v>0.84482720644919718</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="26"/>
+        <v>0.15517279355080285</v>
+      </c>
+      <c r="AM43">
+        <f>AM42+C43</f>
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1992</v>
       </c>
@@ -3178,75 +4747,96 @@
         <v>572</v>
       </c>
       <c r="K44" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.79365079365079361</v>
       </c>
       <c r="L44" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.20634920634920639</v>
       </c>
       <c r="M44" s="5">
+        <f t="shared" si="23"/>
+        <v>206.5939226519337</v>
+      </c>
+      <c r="N44" s="5">
+        <f t="shared" si="24"/>
+        <v>50.406077348066304</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="10"/>
+        <v>3029</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="11"/>
+        <v>0.72631231429514687</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="12"/>
+        <v>0.18884120171673821</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="15"/>
+        <v>6.8205322763926601E-2</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="16"/>
+        <v>1.6641161224188281E-2</v>
+      </c>
+      <c r="V44" s="5">
+        <f t="shared" si="17"/>
+        <v>2116.4740838560579</v>
+      </c>
+      <c r="W44" s="5">
         <f t="shared" si="18"/>
-        <v>206.5939226519337</v>
-      </c>
-      <c r="N44" s="5">
+        <v>550.28326180257511</v>
+      </c>
+      <c r="X44" s="5">
         <f t="shared" si="19"/>
-        <v>50.406077348066304</v>
-      </c>
-      <c r="O44" s="5">
-        <f t="shared" si="5"/>
-        <v>3029</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="6"/>
-        <v>0.72631231429514687</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="7"/>
-        <v>0.18884120171673821</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="10"/>
-        <v>6.8205322763926601E-2</v>
-      </c>
-      <c r="U44">
-        <f t="shared" si="11"/>
-        <v>1.6641161224188281E-2</v>
-      </c>
-      <c r="V44" s="5">
-        <f t="shared" si="12"/>
-        <v>2116.4740838560579</v>
-      </c>
-      <c r="W44" s="5">
-        <f t="shared" si="13"/>
-        <v>550.28326180257511</v>
-      </c>
-      <c r="X44" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y44" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z44" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>198.7503105340821</v>
       </c>
       <c r="AA44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>48.492343807284648</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB44" s="17">
+        <v>48295</v>
+      </c>
+      <c r="AC44" s="12">
+        <v>40671</v>
+      </c>
+      <c r="AD44" s="15">
+        <v>7624</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="25"/>
+        <v>0.8421368671705145</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="26"/>
+        <v>0.15786313282948544</v>
+      </c>
+      <c r="AM44">
+        <f>AM43+C44</f>
+        <v>46438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1993</v>
       </c>
@@ -3281,75 +4871,96 @@
         <v>557</v>
       </c>
       <c r="K45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.79574624129079574</v>
       </c>
       <c r="L45" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.20425375870920426</v>
       </c>
       <c r="M45" s="5">
+        <f t="shared" si="23"/>
+        <v>68.253968253968253</v>
+      </c>
+      <c r="N45" s="5">
+        <f t="shared" si="24"/>
+        <v>17.746031746031747</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" si="10"/>
+        <v>2813</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="11"/>
+        <v>0.77141841450408821</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="12"/>
+        <v>0.19800924280127977</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="15"/>
+        <v>2.4263764043358782E-2</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="16"/>
+        <v>6.308578651273284E-3</v>
+      </c>
+      <c r="V45" s="5">
+        <f t="shared" si="17"/>
+        <v>2399.8826875222185</v>
+      </c>
+      <c r="W45" s="5">
         <f t="shared" si="18"/>
-        <v>68.253968253968253</v>
-      </c>
-      <c r="N45" s="5">
+        <v>616.00675435478138</v>
+      </c>
+      <c r="X45" s="5">
         <f t="shared" si="19"/>
-        <v>17.746031746031747</v>
-      </c>
-      <c r="O45" s="5">
-        <f t="shared" si="5"/>
-        <v>2813</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="6"/>
-        <v>0.77141841450408821</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="7"/>
-        <v>0.19800924280127977</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="10"/>
-        <v>2.4263764043358782E-2</v>
-      </c>
-      <c r="U45">
-        <f t="shared" si="11"/>
-        <v>6.308578651273284E-3</v>
-      </c>
-      <c r="V45" s="5">
-        <f t="shared" si="12"/>
-        <v>2399.8826875222185</v>
-      </c>
-      <c r="W45" s="5">
-        <f t="shared" si="13"/>
-        <v>616.00675435478138</v>
-      </c>
-      <c r="X45" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y45" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z45" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>75.484569938889166</v>
       </c>
       <c r="AA45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>19.625988184111186</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB45" s="16">
+        <v>51425</v>
+      </c>
+      <c r="AC45" s="12">
+        <v>42776</v>
+      </c>
+      <c r="AD45" s="12">
+        <v>8649</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="25"/>
+        <v>0.83181332036947009</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="26"/>
+        <v>0.16818667963052991</v>
+      </c>
+      <c r="AM45">
+        <f>AM44+C45</f>
+        <v>49549</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1994</v>
       </c>
@@ -3384,75 +4995,96 @@
         <v>523</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.81394521522589824</v>
       </c>
       <c r="L46" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.18605478477410176</v>
       </c>
       <c r="M46" s="5">
+        <f t="shared" si="23"/>
+        <v>81.166116611661167</v>
+      </c>
+      <c r="N46" s="5">
+        <f t="shared" si="24"/>
+        <v>20.833883388338833</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="10"/>
+        <v>2913</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="11"/>
+        <v>0.7854445588740131</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="12"/>
+        <v>0.17953999313422589</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="15"/>
+        <v>2.7863411126557214E-2</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="16"/>
+        <v>7.1520368652038561E-3</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" si="17"/>
+        <v>2281.7164435290078</v>
+      </c>
+      <c r="W46" s="5">
         <f t="shared" si="18"/>
-        <v>81.166116611661167</v>
-      </c>
-      <c r="N46" s="5">
+        <v>521.56368005492618</v>
+      </c>
+      <c r="X46" s="5">
         <f t="shared" si="19"/>
-        <v>20.833883388338833</v>
-      </c>
-      <c r="O46" s="5">
-        <f t="shared" si="5"/>
-        <v>2913</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="6"/>
-        <v>0.7854445588740131</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="7"/>
-        <v>0.17953999313422589</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="10"/>
-        <v>2.7863411126557214E-2</v>
-      </c>
-      <c r="U46">
-        <f t="shared" si="11"/>
-        <v>7.1520368652038561E-3</v>
-      </c>
-      <c r="V46" s="5">
-        <f t="shared" si="12"/>
-        <v>2281.7164435290078</v>
-      </c>
-      <c r="W46" s="5">
-        <f t="shared" si="13"/>
-        <v>521.56368005492618</v>
-      </c>
-      <c r="X46" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y46" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z46" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>80.943209322648713</v>
       </c>
       <c r="AA46" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>20.776667093417203</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB46" s="17">
+        <v>54314</v>
+      </c>
+      <c r="AC46" s="12">
+        <v>44718</v>
+      </c>
+      <c r="AD46" s="15">
+        <v>9596</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="25"/>
+        <v>0.82332363663143937</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="26"/>
+        <v>0.1766763633685606</v>
+      </c>
+      <c r="AM46">
+        <f>AM45+C46</f>
+        <v>52454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1995</v>
       </c>
@@ -3487,75 +5119,96 @@
         <v>515</v>
       </c>
       <c r="K47" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.81885332395357013</v>
       </c>
       <c r="L47" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.18114667604642987</v>
       </c>
       <c r="M47" s="5">
+        <f t="shared" si="23"/>
+        <v>1006.0362860192103</v>
+      </c>
+      <c r="N47" s="5">
+        <f t="shared" si="24"/>
+        <v>229.96371398078975</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="10"/>
+        <v>4079</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="11"/>
+        <v>0.57072811963716596</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="12"/>
+        <v>0.12625643540083353</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="15"/>
+        <v>0.24663797156636683</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="16"/>
+        <v>5.6377473395633669E-2</v>
+      </c>
+      <c r="V47" s="5">
+        <f t="shared" si="17"/>
+        <v>1602.0338318215249</v>
+      </c>
+      <c r="W47" s="5">
         <f t="shared" si="18"/>
-        <v>1006.0362860192103</v>
-      </c>
-      <c r="N47" s="5">
+        <v>354.40181417013974</v>
+      </c>
+      <c r="X47" s="5">
         <f t="shared" si="19"/>
-        <v>229.96371398078975</v>
-      </c>
-      <c r="O47" s="5">
-        <f t="shared" si="5"/>
-        <v>4079</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="6"/>
-        <v>0.57072811963716596</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="7"/>
-        <v>0.12625643540083353</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <f t="shared" si="10"/>
-        <v>0.24663797156636683</v>
-      </c>
-      <c r="U47">
-        <f t="shared" si="11"/>
-        <v>5.6377473395633669E-2</v>
-      </c>
-      <c r="V47" s="5">
-        <f t="shared" si="12"/>
-        <v>1602.0338318215249</v>
-      </c>
-      <c r="W47" s="5">
-        <f t="shared" si="13"/>
-        <v>354.40181417013974</v>
-      </c>
-      <c r="X47" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z47" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>692.31278618679164</v>
       </c>
       <c r="AA47" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>158.25156782154372</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB47" s="12">
+        <v>57096</v>
+      </c>
+      <c r="AC47" s="12">
+        <v>46911</v>
+      </c>
+      <c r="AD47" s="12">
+        <v>10185</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="25"/>
+        <v>0.82161622530474987</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="26"/>
+        <v>0.1783837746952501</v>
+      </c>
+      <c r="AM47">
+        <f>AM46+C47</f>
+        <v>55261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1996</v>
       </c>
@@ -3590,75 +5243,96 @@
         <v>557</v>
       </c>
       <c r="K48" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.79664110989412196</v>
       </c>
       <c r="L48" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.20335889010587804</v>
       </c>
       <c r="M48" s="5">
+        <f t="shared" si="23"/>
+        <v>723.86633837495594</v>
+      </c>
+      <c r="N48" s="5">
+        <f t="shared" si="24"/>
+        <v>160.13366162504406</v>
+      </c>
+      <c r="O48" s="5">
+        <f t="shared" si="10"/>
+        <v>3623</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="11"/>
+        <v>0.60226331769252006</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="12"/>
+        <v>0.15373999447971295</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="15"/>
+        <v>0.19979749886142864</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="16"/>
+        <v>4.4199188966338405E-2</v>
+      </c>
+      <c r="V48" s="5">
+        <f t="shared" si="17"/>
+        <v>1320.7634556996966</v>
+      </c>
+      <c r="W48" s="5">
         <f t="shared" si="18"/>
-        <v>723.86633837495594</v>
-      </c>
-      <c r="N48" s="5">
+        <v>337.15180789401052</v>
+      </c>
+      <c r="X48" s="5">
         <f t="shared" si="19"/>
-        <v>160.13366162504406</v>
-      </c>
-      <c r="O48" s="5">
-        <f t="shared" si="5"/>
-        <v>3623</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="6"/>
-        <v>0.60226331769252006</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="7"/>
-        <v>0.15373999447971295</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="10"/>
-        <v>0.19979749886142864</v>
-      </c>
-      <c r="U48">
-        <f t="shared" si="11"/>
-        <v>4.4199188966338405E-2</v>
-      </c>
-      <c r="V48" s="5">
-        <f t="shared" si="12"/>
-        <v>1320.7634556996966</v>
-      </c>
-      <c r="W48" s="5">
-        <f t="shared" si="13"/>
-        <v>337.15180789401052</v>
-      </c>
-      <c r="X48" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y48" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z48" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>438.15591500311302</v>
       </c>
       <c r="AA48" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>96.928821403180123</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB48" s="17">
+        <v>59307</v>
+      </c>
+      <c r="AC48" s="12">
+        <v>48613</v>
+      </c>
+      <c r="AD48" s="15">
+        <v>10694</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="25"/>
+        <v>0.81968401706375305</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="26"/>
+        <v>0.18031598293624698</v>
+      </c>
+      <c r="AM48">
+        <f>AM47+C48</f>
+        <v>57454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1997</v>
       </c>
@@ -3693,75 +5367,96 @@
         <v>534</v>
       </c>
       <c r="K49" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.80687160940325497</v>
       </c>
       <c r="L49" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.19312839059674503</v>
       </c>
       <c r="M49" s="5">
+        <f t="shared" si="23"/>
+        <v>329.01277838627237</v>
+      </c>
+      <c r="N49" s="5">
+        <f t="shared" si="24"/>
+        <v>83.987221613727627</v>
+      </c>
+      <c r="O49" s="5">
+        <f t="shared" si="10"/>
+        <v>3178</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="11"/>
+        <v>0.70201384518565135</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="12"/>
+        <v>0.16803020767778476</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="15"/>
+        <v>0.10352824996421409</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="16"/>
+        <v>2.6427697172349787E-2</v>
+      </c>
+      <c r="V49" s="5">
+        <f t="shared" si="17"/>
+        <v>2273.8228445563245</v>
+      </c>
+      <c r="W49" s="5">
         <f t="shared" si="18"/>
-        <v>329.01277838627237</v>
-      </c>
-      <c r="N49" s="5">
+        <v>544.24984266834485</v>
+      </c>
+      <c r="X49" s="5">
         <f t="shared" si="19"/>
-        <v>83.987221613727627</v>
-      </c>
-      <c r="O49" s="5">
-        <f t="shared" si="5"/>
-        <v>3178</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="6"/>
-        <v>0.70201384518565135</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="7"/>
-        <v>0.16803020767778476</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="10"/>
-        <v>0.10352824996421409</v>
-      </c>
-      <c r="U49">
-        <f t="shared" si="11"/>
-        <v>2.6427697172349787E-2</v>
-      </c>
-      <c r="V49" s="5">
-        <f t="shared" si="12"/>
-        <v>2273.8228445563245</v>
-      </c>
-      <c r="W49" s="5">
-        <f t="shared" si="13"/>
-        <v>544.24984266834485</v>
-      </c>
-      <c r="X49" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y49" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z49" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>335.32800163408945</v>
       </c>
       <c r="AA49" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>85.59931114124096</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB49" s="16">
+        <v>62517</v>
+      </c>
+      <c r="AC49" s="12">
+        <v>51243</v>
+      </c>
+      <c r="AD49" s="12">
+        <v>11274</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="25"/>
+        <v>0.81966505110609911</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="26"/>
+        <v>0.18033494889390086</v>
+      </c>
+      <c r="AM49">
+        <f>AM48+C49</f>
+        <v>60693</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1998</v>
       </c>
@@ -3796,75 +5491,92 @@
         <v>615</v>
       </c>
       <c r="K50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.78012155881301393</v>
       </c>
       <c r="L50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.21987844118698607</v>
       </c>
       <c r="M50" s="5">
+        <f t="shared" si="23"/>
+        <v>301.76998191681736</v>
+      </c>
+      <c r="N50" s="5">
+        <f t="shared" si="24"/>
+        <v>72.230018083182642</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" si="10"/>
+        <v>3171</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="11"/>
+        <v>0.68811100599180064</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="12"/>
+        <v>0.19394512771996217</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="15"/>
+        <v>9.516555721123221E-2</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="16"/>
+        <v>2.2778309077004934E-2</v>
+      </c>
+      <c r="V50" s="5">
+        <f t="shared" si="17"/>
+        <v>1955.6114790286974</v>
+      </c>
+      <c r="W50" s="5">
         <f t="shared" si="18"/>
-        <v>301.76998191681736</v>
-      </c>
-      <c r="N50" s="5">
+        <v>551.19205298013253</v>
+      </c>
+      <c r="X50" s="5">
         <f t="shared" si="19"/>
-        <v>72.230018083182642</v>
-      </c>
-      <c r="O50" s="5">
-        <f t="shared" si="5"/>
-        <v>3171</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="6"/>
-        <v>0.68811100599180064</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="7"/>
-        <v>0.19394512771996217</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="10"/>
-        <v>9.516555721123221E-2</v>
-      </c>
-      <c r="U50">
-        <f t="shared" si="11"/>
-        <v>2.2778309077004934E-2</v>
-      </c>
-      <c r="V50" s="5">
-        <f t="shared" si="12"/>
-        <v>1955.6114790286974</v>
-      </c>
-      <c r="W50" s="5">
-        <f t="shared" si="13"/>
-        <v>551.19205298013253</v>
-      </c>
-      <c r="X50" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y50" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z50" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>270.46051359432192</v>
       </c>
       <c r="AA50" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>64.735954396848015</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="13"/>
+      <c r="AE50" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF50" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM50">
+        <f>AM49+C50</f>
+        <v>63535</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1999</v>
       </c>
@@ -3899,75 +5611,96 @@
         <v>653</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.76400433682688829</v>
       </c>
       <c r="L51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.23599566317311171</v>
       </c>
       <c r="M51" s="5">
+        <f t="shared" si="23"/>
+        <v>202.0514837325706</v>
+      </c>
+      <c r="N51" s="5">
+        <f t="shared" si="24"/>
+        <v>56.948516267429397</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="10"/>
+        <v>3026</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="11"/>
+        <v>0.69861202908129549</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="12"/>
+        <v>0.21579643093192333</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="15"/>
+        <v>6.6771805595694178E-2</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="16"/>
+        <v>1.8819734391087046E-2</v>
+      </c>
+      <c r="V51" s="5">
+        <f t="shared" si="17"/>
+        <v>2005.7151354923994</v>
+      </c>
+      <c r="W51" s="5">
         <f t="shared" si="18"/>
-        <v>202.0514837325706</v>
-      </c>
-      <c r="N51" s="5">
+        <v>619.55155320555184</v>
+      </c>
+      <c r="X51" s="5">
         <f t="shared" si="19"/>
-        <v>56.948516267429397</v>
-      </c>
-      <c r="O51" s="5">
-        <f t="shared" si="5"/>
-        <v>3026</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="6"/>
-        <v>0.69861202908129549</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="7"/>
-        <v>0.21579643093192333</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <f t="shared" si="10"/>
-        <v>6.6771805595694178E-2</v>
-      </c>
-      <c r="U51">
-        <f t="shared" si="11"/>
-        <v>1.8819734391087046E-2</v>
-      </c>
-      <c r="V51" s="5">
-        <f t="shared" si="12"/>
-        <v>2005.7151354923994</v>
-      </c>
-      <c r="W51" s="5">
-        <f t="shared" si="13"/>
-        <v>619.55155320555184</v>
-      </c>
-      <c r="X51" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y51" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z51" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>191.70185386523798</v>
       </c>
       <c r="AA51" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>54.031457436810911</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB51" s="17">
+        <v>65339</v>
+      </c>
+      <c r="AC51" s="12">
+        <v>53460</v>
+      </c>
+      <c r="AD51" s="15">
+        <v>11879</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="25"/>
+        <v>0.81819434028681182</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="26"/>
+        <v>0.18180565971318813</v>
+      </c>
+      <c r="AM51">
+        <f>AM50+C51</f>
+        <v>66406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2000</v>
       </c>
@@ -4002,75 +5735,96 @@
         <v>628</v>
       </c>
       <c r="K52" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.76706231454005935</v>
       </c>
       <c r="L52" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.23293768545994065</v>
       </c>
       <c r="M52" s="5">
+        <f t="shared" si="23"/>
+        <v>173.42898445970363</v>
+      </c>
+      <c r="N52" s="5">
+        <f t="shared" si="24"/>
+        <v>53.571015540296372</v>
+      </c>
+      <c r="O52" s="5">
+        <f t="shared" si="10"/>
+        <v>2923</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="11"/>
+        <v>0.70749230242901129</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="12"/>
+        <v>0.21484775915155663</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="15"/>
+        <v>5.933252975015519E-2</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="16"/>
+        <v>1.8327408669276898E-2</v>
+      </c>
+      <c r="V52" s="5">
+        <f t="shared" si="17"/>
+        <v>1961.1686623332193</v>
+      </c>
+      <c r="W52" s="5">
         <f t="shared" si="18"/>
-        <v>173.42898445970363</v>
-      </c>
-      <c r="N52" s="5">
+        <v>595.55798836811493</v>
+      </c>
+      <c r="X52" s="5">
         <f t="shared" si="19"/>
-        <v>53.571015540296372</v>
-      </c>
-      <c r="O52" s="5">
-        <f t="shared" si="5"/>
-        <v>2923</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="6"/>
-        <v>0.70749230242901129</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="7"/>
-        <v>0.21484775915155663</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="10"/>
-        <v>5.933252975015519E-2</v>
-      </c>
-      <c r="U52">
-        <f t="shared" si="11"/>
-        <v>1.8327408669276898E-2</v>
-      </c>
-      <c r="V52" s="5">
-        <f t="shared" si="12"/>
-        <v>1961.1686623332193</v>
-      </c>
-      <c r="W52" s="5">
-        <f t="shared" si="13"/>
-        <v>595.55798836811493</v>
-      </c>
-      <c r="X52" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y52" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z52" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>164.46977246743018</v>
       </c>
       <c r="AA52" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>50.80357683123556</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB52" s="19">
+        <v>69632</v>
+      </c>
+      <c r="AC52" s="12">
+        <v>57534</v>
+      </c>
+      <c r="AD52" s="12">
+        <v>12098</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="25"/>
+        <v>0.8262580422794118</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="26"/>
+        <v>0.17374195772058823</v>
+      </c>
+      <c r="AM52">
+        <f>AM51+C52</f>
+        <v>69178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2001</v>
       </c>
@@ -4105,75 +5859,96 @@
         <v>924</v>
       </c>
       <c r="K53" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.69843342036553524</v>
       </c>
       <c r="L53" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.30156657963446476</v>
       </c>
       <c r="M53" s="5">
+        <f t="shared" si="23"/>
+        <v>388.13353115727006</v>
+      </c>
+      <c r="N53" s="5">
+        <f t="shared" si="24"/>
+        <v>117.86646884272994</v>
+      </c>
+      <c r="O53" s="5">
+        <f t="shared" si="10"/>
+        <v>3570</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="11"/>
+        <v>0.59943977591036413</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="12"/>
+        <v>0.25882352941176473</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="15"/>
+        <v>0.10872087707486557</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="16"/>
+        <v>3.3015817603005586E-2</v>
+      </c>
+      <c r="V53" s="5">
+        <f t="shared" si="17"/>
+        <v>1676.033613445378</v>
+      </c>
+      <c r="W53" s="5">
         <f t="shared" si="18"/>
-        <v>388.13353115727006</v>
-      </c>
-      <c r="N53" s="5">
+        <v>723.67058823529419</v>
+      </c>
+      <c r="X53" s="5">
         <f t="shared" si="19"/>
-        <v>117.86646884272994</v>
-      </c>
-      <c r="O53" s="5">
-        <f t="shared" si="5"/>
-        <v>3570</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="6"/>
-        <v>0.59943977591036413</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="7"/>
-        <v>0.25882352941176473</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <f t="shared" si="10"/>
-        <v>0.10872087707486557</v>
-      </c>
-      <c r="U53">
-        <f t="shared" si="11"/>
-        <v>3.3015817603005586E-2</v>
-      </c>
-      <c r="V53" s="5">
-        <f t="shared" si="12"/>
-        <v>1676.033613445378</v>
-      </c>
-      <c r="W53" s="5">
-        <f t="shared" si="13"/>
-        <v>723.67058823529419</v>
-      </c>
-      <c r="X53" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y53" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z53" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>303.9835723013241</v>
       </c>
       <c r="AA53" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>92.312226018003614</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB53" s="15">
+        <v>72411</v>
+      </c>
+      <c r="AC53" s="12">
+        <v>59656</v>
+      </c>
+      <c r="AD53" s="15">
+        <v>12755</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="25"/>
+        <v>0.82385272955766387</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="26"/>
+        <v>0.17614727044233611</v>
+      </c>
+      <c r="AM53">
+        <f>AM52+C53</f>
+        <v>71974</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2002</v>
       </c>
@@ -4208,75 +5983,96 @@
         <v>854</v>
       </c>
       <c r="K54" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.72845786963434023</v>
       </c>
       <c r="L54" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.27154213036565977</v>
       </c>
       <c r="M54" s="5">
+        <f t="shared" si="23"/>
+        <v>208.83159268929504</v>
+      </c>
+      <c r="N54" s="5">
+        <f t="shared" si="24"/>
+        <v>90.168407310704964</v>
+      </c>
+      <c r="O54" s="5">
+        <f t="shared" si="10"/>
+        <v>3444</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="11"/>
+        <v>0.66521486643437866</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="12"/>
+        <v>0.24796747967479674</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="15"/>
+        <v>6.0636350955079861E-2</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="16"/>
+        <v>2.6181302935744763E-2</v>
+      </c>
+      <c r="V54" s="5">
+        <f t="shared" si="17"/>
+        <v>2204.5220673635308</v>
+      </c>
+      <c r="W54" s="5">
         <f t="shared" si="18"/>
-        <v>208.83159268929504</v>
-      </c>
-      <c r="N54" s="5">
+        <v>821.76422764227641</v>
+      </c>
+      <c r="X54" s="5">
         <f t="shared" si="19"/>
-        <v>90.168407310704964</v>
-      </c>
-      <c r="O54" s="5">
-        <f t="shared" si="5"/>
-        <v>3444</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="6"/>
-        <v>0.66521486643437866</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" si="7"/>
-        <v>0.24796747967479674</v>
-      </c>
-      <c r="R54">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <f t="shared" si="10"/>
-        <v>6.0636350955079861E-2</v>
-      </c>
-      <c r="U54">
-        <f t="shared" si="11"/>
-        <v>2.6181302935744763E-2</v>
-      </c>
-      <c r="V54" s="5">
-        <f t="shared" si="12"/>
-        <v>2204.5220673635308</v>
-      </c>
-      <c r="W54" s="5">
-        <f t="shared" si="13"/>
-        <v>821.76422764227641</v>
-      </c>
-      <c r="X54" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y54" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z54" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>200.94886706513466</v>
       </c>
       <c r="AA54" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>86.764837929058146</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB54" s="12">
+        <v>75203</v>
+      </c>
+      <c r="AC54" s="12">
+        <v>61658</v>
+      </c>
+      <c r="AD54" s="12">
+        <v>13545</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="25"/>
+        <v>0.81988750448785286</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="26"/>
+        <v>0.18011249551214711</v>
+      </c>
+      <c r="AM54">
+        <f>AM53+C54</f>
+        <v>75288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2003</v>
       </c>
@@ -4311,75 +6107,96 @@
         <v>955</v>
       </c>
       <c r="K55" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.71695317131001779</v>
       </c>
       <c r="L55" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.28304682868998221</v>
       </c>
       <c r="M55" s="5">
+        <f t="shared" si="23"/>
+        <v>400.65182829888715</v>
+      </c>
+      <c r="N55" s="5">
+        <f t="shared" si="24"/>
+        <v>149.34817170111285</v>
+      </c>
+      <c r="O55" s="5">
+        <f t="shared" si="10"/>
+        <v>3924</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="11"/>
+        <v>0.61646279306829765</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="12"/>
+        <v>0.24337410805300713</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="15"/>
+        <v>0.1021029124105217</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="16"/>
+        <v>3.806018646817351E-2</v>
+      </c>
+      <c r="V55" s="5">
+        <f t="shared" si="17"/>
+        <v>1947.4059633027523</v>
+      </c>
+      <c r="W55" s="5">
         <f t="shared" si="18"/>
-        <v>400.65182829888715</v>
-      </c>
-      <c r="N55" s="5">
+        <v>768.81880733944956</v>
+      </c>
+      <c r="X55" s="5">
         <f t="shared" si="19"/>
-        <v>149.34817170111285</v>
-      </c>
-      <c r="O55" s="5">
-        <f t="shared" si="5"/>
-        <v>3924</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="6"/>
-        <v>0.61646279306829765</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" si="7"/>
-        <v>0.24337410805300713</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <f t="shared" si="10"/>
-        <v>0.1021029124105217</v>
-      </c>
-      <c r="U55">
-        <f t="shared" si="11"/>
-        <v>3.806018646817351E-2</v>
-      </c>
-      <c r="V55" s="5">
-        <f t="shared" si="12"/>
-        <v>1947.4059633027523</v>
-      </c>
-      <c r="W55" s="5">
-        <f t="shared" si="13"/>
-        <v>768.81880733944956</v>
-      </c>
-      <c r="X55" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y55" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z55" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>322.54310030483805</v>
       </c>
       <c r="AA55" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>120.23212905296012</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB55" s="15">
+        <v>78517</v>
+      </c>
+      <c r="AC55" s="12">
+        <v>64079</v>
+      </c>
+      <c r="AD55" s="15">
+        <v>14438</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="25"/>
+        <v>0.81611625507851804</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="26"/>
+        <v>0.18388374492148196</v>
+      </c>
+      <c r="AM55">
+        <f>AM54+C55</f>
+        <v>78447</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2004</v>
       </c>
@@ -4414,75 +6231,96 @@
         <v>1006</v>
       </c>
       <c r="K56" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.70368188512518415</v>
       </c>
       <c r="L56" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.29631811487481585</v>
       </c>
       <c r="M56" s="5">
+        <f t="shared" si="23"/>
+        <v>163.46532305868405</v>
+      </c>
+      <c r="N56" s="5">
+        <f t="shared" si="24"/>
+        <v>64.534676941315951</v>
+      </c>
+      <c r="O56" s="5">
+        <f t="shared" si="10"/>
+        <v>3623</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="11"/>
+        <v>0.65939828871101303</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="12"/>
+        <v>0.27767043886282089</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="15"/>
+        <v>4.5118775340514505E-2</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="16"/>
+        <v>1.7812497085651656E-2</v>
+      </c>
+      <c r="V56" s="5">
+        <f t="shared" si="17"/>
+        <v>2479.3375655534091</v>
+      </c>
+      <c r="W56" s="5">
         <f t="shared" si="18"/>
-        <v>163.46532305868405</v>
-      </c>
-      <c r="N56" s="5">
+        <v>1044.0408501242066</v>
+      </c>
+      <c r="X56" s="5">
         <f t="shared" si="19"/>
-        <v>64.534676941315951</v>
-      </c>
-      <c r="O56" s="5">
-        <f t="shared" si="5"/>
-        <v>3623</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="6"/>
-        <v>0.65939828871101303</v>
-      </c>
-      <c r="Q56">
-        <f t="shared" si="7"/>
-        <v>0.27767043886282089</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <f t="shared" si="10"/>
-        <v>4.5118775340514505E-2</v>
-      </c>
-      <c r="U56">
-        <f t="shared" si="11"/>
-        <v>1.7812497085651656E-2</v>
-      </c>
-      <c r="V56" s="5">
-        <f t="shared" si="12"/>
-        <v>2479.3375655534091</v>
-      </c>
-      <c r="W56" s="5">
-        <f t="shared" si="13"/>
-        <v>1044.0408501242066</v>
-      </c>
-      <c r="X56" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y56" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z56" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>169.64659528033454</v>
       </c>
       <c r="AA56" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>66.974989042050225</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB56" s="12">
+        <v>81248</v>
+      </c>
+      <c r="AC56" s="12">
+        <v>66299</v>
+      </c>
+      <c r="AD56" s="12">
+        <v>14949</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="25"/>
+        <v>0.81600777865301299</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="26"/>
+        <v>0.18399222134698701</v>
+      </c>
+      <c r="AM56">
+        <f>AM55+C56</f>
+        <v>82207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2005</v>
       </c>
@@ -4517,75 +6355,96 @@
         <v>1069</v>
       </c>
       <c r="K57" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.69360848380624818</v>
       </c>
       <c r="L57" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.30639151619375182</v>
       </c>
       <c r="M57" s="5">
+        <f t="shared" si="23"/>
+        <v>242.77025036818853</v>
+      </c>
+      <c r="N57" s="5">
+        <f t="shared" si="24"/>
+        <v>102.22974963181147</v>
+      </c>
+      <c r="O57" s="5">
+        <f t="shared" si="10"/>
+        <v>3834</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="11"/>
+        <v>0.63119457485654673</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="12"/>
+        <v>0.27882107459572247</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="15"/>
+        <v>6.3320357425192625E-2</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="16"/>
+        <v>2.6663993122538202E-2</v>
+      </c>
+      <c r="V57" s="5">
+        <f t="shared" si="17"/>
+        <v>2128.3881064162756</v>
+      </c>
+      <c r="W57" s="5">
         <f t="shared" si="18"/>
-        <v>242.77025036818853</v>
-      </c>
-      <c r="N57" s="5">
+        <v>940.18466353677616</v>
+      </c>
+      <c r="X57" s="5">
         <f t="shared" si="19"/>
-        <v>102.22974963181147</v>
-      </c>
-      <c r="O57" s="5">
-        <f t="shared" si="5"/>
-        <v>3834</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="6"/>
-        <v>0.63119457485654673</v>
-      </c>
-      <c r="Q57">
-        <f t="shared" si="7"/>
-        <v>0.27882107459572247</v>
-      </c>
-      <c r="R57">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <f t="shared" si="10"/>
-        <v>6.3320357425192625E-2</v>
-      </c>
-      <c r="U57">
-        <f t="shared" si="11"/>
-        <v>2.6663993122538202E-2</v>
-      </c>
-      <c r="V57" s="5">
-        <f t="shared" si="12"/>
-        <v>2128.3881064162756</v>
-      </c>
-      <c r="W57" s="5">
-        <f t="shared" si="13"/>
-        <v>940.18466353677616</v>
-      </c>
-      <c r="X57" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y57" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z57" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>213.51624523774953</v>
       </c>
       <c r="AA57" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>89.910984809198823</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB57" s="15">
+        <v>81918</v>
+      </c>
+      <c r="AC57" s="12">
+        <v>66150</v>
+      </c>
+      <c r="AD57" s="15">
+        <v>15768</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="25"/>
+        <v>0.80751483190507578</v>
+      </c>
+      <c r="AF57">
+        <f t="shared" si="26"/>
+        <v>0.19248516809492419</v>
+      </c>
+      <c r="AM57">
+        <f>AM56+C57</f>
+        <v>85579</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2006</v>
       </c>
@@ -4620,75 +6479,96 @@
         <v>1319</v>
       </c>
       <c r="K58" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.62400228050171036</v>
       </c>
       <c r="L58" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.37599771949828964</v>
       </c>
       <c r="M58" s="5">
+        <f t="shared" si="23"/>
+        <v>226.80997420464314</v>
+      </c>
+      <c r="N58" s="5">
+        <f t="shared" si="24"/>
+        <v>100.19002579535686</v>
+      </c>
+      <c r="O58" s="5">
+        <f t="shared" si="10"/>
+        <v>3835</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="11"/>
+        <v>0.57079530638852671</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="12"/>
+        <v>0.3439374185136897</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="15"/>
+        <v>5.9142105398863921E-2</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="16"/>
+        <v>2.6125169698919651E-2</v>
+      </c>
+      <c r="V58" s="5">
+        <f t="shared" si="17"/>
+        <v>1991.5048239895698</v>
+      </c>
+      <c r="W58" s="5">
         <f t="shared" si="18"/>
-        <v>226.80997420464314</v>
-      </c>
-      <c r="N58" s="5">
+        <v>1199.9976531942634</v>
+      </c>
+      <c r="X58" s="5">
         <f t="shared" si="19"/>
-        <v>100.19002579535686</v>
-      </c>
-      <c r="O58" s="5">
-        <f t="shared" si="5"/>
-        <v>3835</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="6"/>
-        <v>0.57079530638852671</v>
-      </c>
-      <c r="Q58">
-        <f t="shared" si="7"/>
-        <v>0.3439374185136897</v>
-      </c>
-      <c r="R58">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <f t="shared" si="10"/>
-        <v>5.9142105398863921E-2</v>
-      </c>
-      <c r="U58">
-        <f t="shared" si="11"/>
-        <v>2.6125169698919651E-2</v>
-      </c>
-      <c r="V58" s="5">
-        <f t="shared" si="12"/>
-        <v>1991.5048239895698</v>
-      </c>
-      <c r="W58" s="5">
-        <f t="shared" si="13"/>
-        <v>1199.9976531942634</v>
-      </c>
-      <c r="X58" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y58" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z58" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>206.34680573663621</v>
       </c>
       <c r="AA58" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>91.150717079530665</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB58" s="12">
+        <v>85289</v>
+      </c>
+      <c r="AC58" s="12">
+        <v>68445</v>
+      </c>
+      <c r="AD58" s="12">
+        <v>16844</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="25"/>
+        <v>0.80250677109592095</v>
+      </c>
+      <c r="AF58">
+        <f t="shared" si="26"/>
+        <v>0.19749322890407908</v>
+      </c>
+      <c r="AM58">
+        <f>AM57+C58</f>
+        <v>89068</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2007</v>
       </c>
@@ -4723,75 +6603,96 @@
         <v>1241</v>
       </c>
       <c r="K59" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.6441066819615715</v>
       </c>
       <c r="L59" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.3558933180384285</v>
       </c>
       <c r="M59" s="5">
+        <f t="shared" si="23"/>
+        <v>287.04104903078678</v>
+      </c>
+      <c r="N59" s="5">
+        <f t="shared" si="24"/>
+        <v>172.95895096921322</v>
+      </c>
+      <c r="O59" s="5">
+        <f t="shared" si="10"/>
+        <v>3947</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="11"/>
+        <v>0.56903977704585762</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="12"/>
+        <v>0.31441601216113502</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="15"/>
+        <v>7.2723853314108633E-2</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="16"/>
+        <v>4.382035747889871E-2</v>
+      </c>
+      <c r="V59" s="5">
+        <f t="shared" si="17"/>
+        <v>1880.6764631365595</v>
+      </c>
+      <c r="W59" s="5">
         <f t="shared" si="18"/>
-        <v>287.04104903078678</v>
-      </c>
-      <c r="N59" s="5">
+        <v>1039.1449201925511</v>
+      </c>
+      <c r="X59" s="5">
         <f t="shared" si="19"/>
-        <v>172.95895096921322</v>
-      </c>
-      <c r="O59" s="5">
-        <f t="shared" si="5"/>
-        <v>3947</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="6"/>
-        <v>0.56903977704585762</v>
-      </c>
-      <c r="Q59">
-        <f t="shared" si="7"/>
-        <v>0.31441601216113502</v>
-      </c>
-      <c r="R59">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <f t="shared" si="10"/>
-        <v>7.2723853314108633E-2</v>
-      </c>
-      <c r="U59">
-        <f t="shared" si="11"/>
-        <v>4.382035747889871E-2</v>
-      </c>
-      <c r="V59" s="5">
-        <f t="shared" si="12"/>
-        <v>1880.6764631365595</v>
-      </c>
-      <c r="W59" s="5">
-        <f t="shared" si="13"/>
-        <v>1039.1449201925511</v>
-      </c>
-      <c r="X59" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y59" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z59" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>240.35233520312903</v>
       </c>
       <c r="AA59" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>144.82628146776023</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB59" s="15">
+        <v>88139</v>
+      </c>
+      <c r="AC59" s="12">
+        <v>70074</v>
+      </c>
+      <c r="AD59" s="15">
+        <v>18065</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="25"/>
+        <v>0.79503965327494075</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="26"/>
+        <v>0.20496034672505928</v>
+      </c>
+      <c r="AM59">
+        <f>AM58+C59</f>
+        <v>92373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2008</v>
       </c>
@@ -4826,75 +6727,96 @@
         <v>1233</v>
       </c>
       <c r="K60" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.65759511246875868</v>
       </c>
       <c r="L60" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.34240488753124132</v>
       </c>
       <c r="M60" s="5">
+        <f t="shared" si="23"/>
+        <v>110.7863492973903</v>
+      </c>
+      <c r="N60" s="5">
+        <f t="shared" si="24"/>
+        <v>61.213650702609698</v>
+      </c>
+      <c r="O60" s="5">
+        <f t="shared" si="10"/>
+        <v>3773</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="11"/>
+        <v>0.6276172806785052</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="12"/>
+        <v>0.32679565332626559</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="15"/>
+        <v>2.9362933818550305E-2</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="16"/>
+        <v>1.6224132176678955E-2</v>
+      </c>
+      <c r="V60" s="5">
+        <f t="shared" si="17"/>
+        <v>2439.5483699973497</v>
+      </c>
+      <c r="W60" s="5">
         <f t="shared" si="18"/>
-        <v>110.7863492973903</v>
-      </c>
-      <c r="N60" s="5">
+        <v>1270.2547044791943</v>
+      </c>
+      <c r="X60" s="5">
         <f t="shared" si="19"/>
-        <v>61.213650702609698</v>
-      </c>
-      <c r="O60" s="5">
-        <f t="shared" si="5"/>
-        <v>3773</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="6"/>
-        <v>0.6276172806785052</v>
-      </c>
-      <c r="Q60">
-        <f t="shared" si="7"/>
-        <v>0.32679565332626559</v>
-      </c>
-      <c r="R60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <f t="shared" si="10"/>
-        <v>2.9362933818550305E-2</v>
-      </c>
-      <c r="U60">
-        <f t="shared" si="11"/>
-        <v>1.6224132176678955E-2</v>
-      </c>
-      <c r="V60" s="5">
-        <f t="shared" si="12"/>
-        <v>2439.5483699973497</v>
-      </c>
-      <c r="W60" s="5">
-        <f t="shared" si="13"/>
-        <v>1270.2547044791943</v>
-      </c>
-      <c r="X60" s="5">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y60" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z60" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>114.13372375270504</v>
       </c>
       <c r="AA60" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>63.0632017707511</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB60" s="20">
+        <v>91400</v>
+      </c>
+      <c r="AC60" s="12">
+        <v>72147</v>
+      </c>
+      <c r="AD60" s="20">
+        <v>19253</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="25"/>
+        <v>0.78935448577680523</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" si="26"/>
+        <v>0.21064551422319475</v>
+      </c>
+      <c r="AM60">
+        <f>AM59+C60</f>
+        <v>96260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2009</v>
       </c>
@@ -4929,75 +6851,96 @@
         <v>1326</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.63410596026490063</v>
       </c>
       <c r="L61" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.36589403973509937</v>
       </c>
       <c r="M61" s="5">
+        <f t="shared" si="23"/>
+        <v>170.97472924187727</v>
+      </c>
+      <c r="N61" s="5">
+        <f t="shared" si="24"/>
+        <v>89.02527075812273</v>
+      </c>
+      <c r="O61" s="5">
+        <f t="shared" si="10"/>
+        <v>3884</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="11"/>
+        <v>0.57543769309989701</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="12"/>
+        <v>0.31668383110195675</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="13"/>
+        <v>1.6220391349124615E-2</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="14"/>
+        <v>2.4716786817713696E-2</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="15"/>
+        <v>4.4020270144664593E-2</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="16"/>
+        <v>2.292102748664334E-2</v>
+      </c>
+      <c r="V61" s="5">
+        <f t="shared" si="17"/>
+        <v>2019.7863027806386</v>
+      </c>
+      <c r="W61" s="5">
         <f t="shared" si="18"/>
-        <v>170.97472924187727</v>
-      </c>
-      <c r="N61" s="5">
+        <v>1111.5602471678683</v>
+      </c>
+      <c r="X61" s="5">
         <f t="shared" si="19"/>
-        <v>89.02527075812273</v>
-      </c>
-      <c r="O61" s="5">
-        <f t="shared" si="5"/>
-        <v>3884</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="6"/>
-        <v>0.57543769309989701</v>
-      </c>
-      <c r="Q61">
-        <f t="shared" si="7"/>
-        <v>0.31668383110195675</v>
-      </c>
-      <c r="R61">
-        <f t="shared" si="8"/>
-        <v>1.6220391349124615E-2</v>
-      </c>
-      <c r="S61">
-        <f t="shared" si="9"/>
-        <v>2.4716786817713696E-2</v>
-      </c>
-      <c r="T61">
-        <f t="shared" si="10"/>
-        <v>4.4020270144664593E-2</v>
-      </c>
-      <c r="U61">
-        <f t="shared" si="11"/>
-        <v>2.292102748664334E-2</v>
-      </c>
-      <c r="V61" s="5">
-        <f t="shared" si="12"/>
-        <v>2019.7863027806386</v>
-      </c>
-      <c r="W61" s="5">
-        <f t="shared" si="13"/>
-        <v>1111.5602471678683</v>
-      </c>
-      <c r="X61" s="5">
-        <f t="shared" si="14"/>
         <v>56.9335736354274</v>
       </c>
       <c r="Y61" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>86.755921730175075</v>
       </c>
       <c r="Z61" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>154.51114820777272</v>
       </c>
       <c r="AA61" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>80.45280647811812</v>
       </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB61" s="21">
+        <v>95014</v>
+      </c>
+      <c r="AC61" s="12">
+        <v>74491</v>
+      </c>
+      <c r="AD61" s="21">
+        <v>20523</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="25"/>
+        <v>0.78400025259435446</v>
+      </c>
+      <c r="AF61">
+        <f t="shared" si="26"/>
+        <v>0.21599974740564548</v>
+      </c>
+      <c r="AM61">
+        <f>AM60+C61</f>
+        <v>99770</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2010</v>
       </c>
@@ -5032,75 +6975,96 @@
         <v>1189</v>
       </c>
       <c r="K62" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.6388213851761847</v>
       </c>
       <c r="L62" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.3611786148238153</v>
       </c>
       <c r="M62" s="5">
+        <f t="shared" si="23"/>
+        <v>162.96523178807945</v>
+      </c>
+      <c r="N62" s="5">
+        <f t="shared" si="24"/>
+        <v>94.03476821192055</v>
+      </c>
+      <c r="O62" s="5">
+        <f t="shared" si="10"/>
+        <v>3549</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="11"/>
+        <v>0.5167652859960552</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="12"/>
+        <v>0.24063116370808679</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="13"/>
+        <v>7.5795998872921946E-2</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="14"/>
+        <v>9.4392786700479014E-2</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="15"/>
+        <v>4.591863392169046E-2</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="16"/>
+        <v>2.6496130800766567E-2</v>
+      </c>
+      <c r="V62" s="5">
+        <f t="shared" si="17"/>
+        <v>1666.051282051282</v>
+      </c>
+      <c r="W62" s="5">
         <f t="shared" si="18"/>
-        <v>162.96523178807945</v>
-      </c>
-      <c r="N62" s="5">
+        <v>775.79487179487182</v>
+      </c>
+      <c r="X62" s="5">
         <f t="shared" si="19"/>
-        <v>94.03476821192055</v>
-      </c>
-      <c r="O62" s="5">
-        <f t="shared" si="5"/>
-        <v>3549</v>
-      </c>
-      <c r="P62">
-        <f t="shared" si="6"/>
-        <v>0.5167652859960552</v>
-      </c>
-      <c r="Q62">
-        <f t="shared" si="7"/>
-        <v>0.24063116370808679</v>
-      </c>
-      <c r="R62">
-        <f t="shared" si="8"/>
-        <v>7.5795998872921946E-2</v>
-      </c>
-      <c r="S62">
-        <f t="shared" si="9"/>
-        <v>9.4392786700479014E-2</v>
-      </c>
-      <c r="T62">
-        <f t="shared" si="10"/>
-        <v>4.591863392169046E-2</v>
-      </c>
-      <c r="U62">
-        <f t="shared" si="11"/>
-        <v>2.6496130800766567E-2</v>
-      </c>
-      <c r="V62" s="5">
-        <f t="shared" si="12"/>
-        <v>1666.051282051282</v>
-      </c>
-      <c r="W62" s="5">
-        <f t="shared" si="13"/>
-        <v>775.79487179487182</v>
-      </c>
-      <c r="X62" s="5">
-        <f t="shared" si="14"/>
         <v>244.36630036630035</v>
       </c>
       <c r="Y62" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>304.32234432234435</v>
       </c>
       <c r="Z62" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>148.04167576353004</v>
       </c>
       <c r="AA62" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>85.423525701671409</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB62" s="20">
+        <v>98360</v>
+      </c>
+      <c r="AC62" s="12">
+        <v>76550</v>
+      </c>
+      <c r="AD62" s="20">
+        <v>21810</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="25"/>
+        <v>0.77826352175681168</v>
+      </c>
+      <c r="AF62">
+        <f t="shared" si="26"/>
+        <v>0.22173647824318829</v>
+      </c>
+      <c r="AM62">
+        <f>AM61+C62</f>
+        <v>102994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2011</v>
       </c>
@@ -5135,75 +7099,96 @@
         <v>1085</v>
       </c>
       <c r="K63" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.65976795233615548</v>
       </c>
       <c r="L63" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.34023204766384452</v>
       </c>
       <c r="M63" s="5">
+        <f t="shared" si="23"/>
+        <v>189.09113001215067</v>
+      </c>
+      <c r="N63" s="5">
+        <f t="shared" si="24"/>
+        <v>106.90886998784933</v>
+      </c>
+      <c r="O63" s="5">
+        <f t="shared" si="10"/>
+        <v>3485</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="11"/>
+        <v>0.52022955523672887</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="12"/>
+        <v>0.20717360114777619</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="13"/>
+        <v>8.3500717360114773E-2</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="14"/>
+        <v>0.10416068866571018</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="15"/>
+        <v>5.4258573891578385E-2</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="16"/>
+        <v>3.0676863698091628E-2</v>
+      </c>
+      <c r="V63" s="5">
+        <f t="shared" si="17"/>
+        <v>1610.1104734576759</v>
+      </c>
+      <c r="W63" s="5">
         <f t="shared" si="18"/>
-        <v>189.09113001215067</v>
-      </c>
-      <c r="N63" s="5">
+        <v>641.20229555236733</v>
+      </c>
+      <c r="X63" s="5">
         <f t="shared" si="19"/>
-        <v>106.90886998784933</v>
-      </c>
-      <c r="O63" s="5">
-        <f t="shared" si="5"/>
-        <v>3485</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="6"/>
-        <v>0.52022955523672887</v>
-      </c>
-      <c r="Q63">
-        <f t="shared" si="7"/>
-        <v>0.20717360114777619</v>
-      </c>
-      <c r="R63">
-        <f t="shared" si="8"/>
-        <v>8.3500717360114773E-2</v>
-      </c>
-      <c r="S63">
-        <f t="shared" si="9"/>
-        <v>0.10416068866571018</v>
-      </c>
-      <c r="T63">
-        <f t="shared" si="10"/>
-        <v>5.4258573891578385E-2</v>
-      </c>
-      <c r="U63">
-        <f t="shared" si="11"/>
-        <v>3.0676863698091628E-2</v>
-      </c>
-      <c r="V63" s="5">
-        <f t="shared" si="12"/>
-        <v>1610.1104734576759</v>
-      </c>
-      <c r="W63" s="5">
-        <f t="shared" si="13"/>
-        <v>641.20229555236733</v>
-      </c>
-      <c r="X63" s="5">
-        <f t="shared" si="14"/>
         <v>258.43472022955524</v>
       </c>
       <c r="Y63" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>322.37733142037303</v>
       </c>
       <c r="Z63" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>167.9302861944351</v>
       </c>
       <c r="AA63" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>94.944893145593596</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB63" s="21">
+        <v>101371</v>
+      </c>
+      <c r="AC63" s="12">
+        <v>78433</v>
+      </c>
+      <c r="AD63" s="21">
+        <v>22938</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="25"/>
+        <v>0.77372226770969998</v>
+      </c>
+      <c r="AF63">
+        <f t="shared" si="26"/>
+        <v>0.22627773229029999</v>
+      </c>
+      <c r="AM63">
+        <f>AM62+C63</f>
+        <v>106089</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2012</v>
       </c>
@@ -5238,75 +7223,96 @@
         <v>1111</v>
       </c>
       <c r="K64" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.66034851727300514</v>
       </c>
       <c r="L64" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.33965148272699486</v>
       </c>
       <c r="M64" s="5">
+        <f t="shared" si="23"/>
+        <v>202.54876136719975</v>
+      </c>
+      <c r="N64" s="5">
+        <f t="shared" si="24"/>
+        <v>104.45123863280025</v>
+      </c>
+      <c r="O64" s="5">
+        <f t="shared" si="10"/>
+        <v>3578</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="11"/>
+        <v>0.50754611514812742</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="12"/>
+        <v>0.18082727780883176</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="13"/>
+        <v>9.6143096702068193E-2</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="14"/>
+        <v>0.12968138624930128</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="15"/>
+        <v>5.6609491718054711E-2</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="16"/>
+        <v>2.9192632373616616E-2</v>
+      </c>
+      <c r="V64" s="5">
+        <f t="shared" si="17"/>
+        <v>1628.2079373951929</v>
+      </c>
+      <c r="W64" s="5">
         <f t="shared" si="18"/>
-        <v>202.54876136719975</v>
-      </c>
-      <c r="N64" s="5">
+        <v>580.09390721073225</v>
+      </c>
+      <c r="X64" s="5">
         <f t="shared" si="19"/>
-        <v>104.45123863280025</v>
-      </c>
-      <c r="O64" s="5">
-        <f t="shared" si="5"/>
-        <v>3578</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="6"/>
-        <v>0.50754611514812742</v>
-      </c>
-      <c r="Q64">
-        <f t="shared" si="7"/>
-        <v>0.18082727780883176</v>
-      </c>
-      <c r="R64">
-        <f t="shared" si="8"/>
-        <v>9.6143096702068193E-2</v>
-      </c>
-      <c r="S64">
-        <f t="shared" si="9"/>
-        <v>0.12968138624930128</v>
-      </c>
-      <c r="T64">
-        <f t="shared" si="10"/>
-        <v>5.6609491718054711E-2</v>
-      </c>
-      <c r="U64">
-        <f t="shared" si="11"/>
-        <v>2.9192632373616616E-2</v>
-      </c>
-      <c r="V64" s="5">
-        <f t="shared" si="12"/>
-        <v>1628.2079373951929</v>
-      </c>
-      <c r="W64" s="5">
-        <f t="shared" si="13"/>
-        <v>580.09390721073225</v>
-      </c>
-      <c r="X64" s="5">
-        <f t="shared" si="14"/>
         <v>308.42705422023477</v>
       </c>
       <c r="Y64" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>416.01788708775854</v>
       </c>
       <c r="Z64" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>181.60324943151952</v>
       </c>
       <c r="AA64" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>93.649964654562112</v>
       </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB64" s="20">
+        <v>104332</v>
+      </c>
+      <c r="AC64" s="12">
+        <v>80348</v>
+      </c>
+      <c r="AD64" s="20">
+        <v>23984</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="25"/>
+        <v>0.77011846796764172</v>
+      </c>
+      <c r="AF64">
+        <f t="shared" si="26"/>
+        <v>0.22988153203235825</v>
+      </c>
+      <c r="AM64">
+        <f>AM63+C64</f>
+        <v>109297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2013</v>
       </c>
@@ -5341,75 +7347,96 @@
         <v>1333</v>
       </c>
       <c r="K65" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.59022440823854905</v>
       </c>
       <c r="L65" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.40977559176145095</v>
       </c>
       <c r="M65" s="5">
+        <f t="shared" si="23"/>
+        <v>202.06664628553958</v>
+      </c>
+      <c r="N65" s="5">
+        <f t="shared" si="24"/>
+        <v>103.93335371446042</v>
+      </c>
+      <c r="O65" s="5">
+        <f t="shared" si="10"/>
+        <v>3559</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="11"/>
+        <v>0.35347007586400675</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="12"/>
+        <v>0.14301770160157348</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="13"/>
+        <v>0.18600730542287158</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="14"/>
+        <v>0.23152570946895196</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="15"/>
+        <v>5.6776242283096259E-2</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="16"/>
+        <v>2.9202965359499979E-2</v>
+      </c>
+      <c r="V65" s="5">
+        <f t="shared" si="17"/>
+        <v>1071.7212700196685</v>
+      </c>
+      <c r="W65" s="5">
         <f t="shared" si="18"/>
-        <v>202.06664628553958</v>
-      </c>
-      <c r="N65" s="5">
+        <v>433.62967125597078</v>
+      </c>
+      <c r="X65" s="5">
         <f t="shared" si="19"/>
-        <v>103.93335371446042</v>
-      </c>
-      <c r="O65" s="5">
-        <f t="shared" si="5"/>
-        <v>3559</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="6"/>
-        <v>0.35347007586400675</v>
-      </c>
-      <c r="Q65">
-        <f t="shared" si="7"/>
-        <v>0.14301770160157348</v>
-      </c>
-      <c r="R65">
-        <f t="shared" si="8"/>
-        <v>0.18600730542287158</v>
-      </c>
-      <c r="S65">
-        <f t="shared" si="9"/>
-        <v>0.23152570946895196</v>
-      </c>
-      <c r="T65">
-        <f t="shared" si="10"/>
-        <v>5.6776242283096259E-2</v>
-      </c>
-      <c r="U65">
-        <f t="shared" si="11"/>
-        <v>2.9202965359499979E-2</v>
-      </c>
-      <c r="V65" s="5">
-        <f t="shared" si="12"/>
-        <v>1071.7212700196685</v>
-      </c>
-      <c r="W65" s="5">
-        <f t="shared" si="13"/>
-        <v>433.62967125597078</v>
-      </c>
-      <c r="X65" s="5">
-        <f t="shared" si="14"/>
         <v>563.97415004214668</v>
       </c>
       <c r="Y65" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>701.9859511098623</v>
       </c>
       <c r="Z65" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>172.14556660234786</v>
       </c>
       <c r="AA65" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>88.543390970003941</v>
       </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB65" s="21">
+        <v>107221</v>
+      </c>
+      <c r="AC65" s="12">
+        <v>82216</v>
+      </c>
+      <c r="AD65" s="21">
+        <v>25005</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="25"/>
+        <v>0.76679008776265845</v>
+      </c>
+      <c r="AF65">
+        <f t="shared" si="26"/>
+        <v>0.23320991223734155</v>
+      </c>
+      <c r="AM65">
+        <f>AM64+C65</f>
+        <v>112329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2014</v>
       </c>
@@ -5444,75 +7471,96 @@
         <v>1450</v>
       </c>
       <c r="K66" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.58007529684332459</v>
       </c>
       <c r="L66" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.41992470315667541</v>
       </c>
       <c r="M66" s="5">
+        <f t="shared" si="23"/>
+        <v>147.55610205963725</v>
+      </c>
+      <c r="N66" s="5">
+        <f t="shared" si="24"/>
+        <v>102.44389794036275</v>
+      </c>
+      <c r="O66" s="5">
+        <f t="shared" si="10"/>
+        <v>3703</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="11"/>
+        <v>0.33702403456656765</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="12"/>
+        <v>0.14852822036186875</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="13"/>
+        <v>0.20388873886038347</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="14"/>
+        <v>0.24304617877396706</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="15"/>
+        <v>3.984771862264036E-2</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="16"/>
+        <v>2.7665108814572709E-2</v>
+      </c>
+      <c r="V66" s="5">
+        <f t="shared" si="17"/>
+        <v>1078.4769106130166</v>
+      </c>
+      <c r="W66" s="5">
         <f t="shared" si="18"/>
-        <v>147.55610205963725</v>
-      </c>
-      <c r="N66" s="5">
+        <v>475.29030515798001</v>
+      </c>
+      <c r="X66" s="5">
         <f t="shared" si="19"/>
-        <v>102.44389794036275</v>
-      </c>
-      <c r="O66" s="5">
-        <f t="shared" si="5"/>
-        <v>3703</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="6"/>
-        <v>0.33702403456656765</v>
-      </c>
-      <c r="Q66">
-        <f t="shared" si="7"/>
-        <v>0.14852822036186875</v>
-      </c>
-      <c r="R66">
-        <f t="shared" si="8"/>
-        <v>0.20388873886038347</v>
-      </c>
-      <c r="S66">
-        <f t="shared" si="9"/>
-        <v>0.24304617877396706</v>
-      </c>
-      <c r="T66">
-        <f t="shared" si="10"/>
-        <v>3.984771862264036E-2</v>
-      </c>
-      <c r="U66">
-        <f t="shared" si="11"/>
-        <v>2.7665108814572709E-2</v>
-      </c>
-      <c r="V66" s="5">
-        <f t="shared" si="12"/>
-        <v>1078.4769106130166</v>
-      </c>
-      <c r="W66" s="5">
-        <f t="shared" si="13"/>
-        <v>475.29030515798001</v>
-      </c>
-      <c r="X66" s="5">
-        <f t="shared" si="14"/>
         <v>652.4439643532271</v>
       </c>
       <c r="Y66" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>777.74777207669456</v>
       </c>
       <c r="Z66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>127.51269959244915</v>
       </c>
       <c r="AA66" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>88.528348206632671</v>
       </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB66" s="20">
+        <v>109500</v>
+      </c>
+      <c r="AC66" s="12">
+        <v>83352</v>
+      </c>
+      <c r="AD66" s="20">
+        <v>26148</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="25"/>
+        <v>0.76120547945205475</v>
+      </c>
+      <c r="AF66">
+        <f t="shared" si="26"/>
+        <v>0.2387945205479452</v>
+      </c>
+      <c r="AM66">
+        <f>AM65+C66</f>
+        <v>115529</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2015</v>
       </c>
@@ -5539,83 +7587,104 @@
         <v>807</v>
       </c>
       <c r="I67" s="7">
-        <f t="shared" ref="I67:I71" si="20">E67+G67</f>
+        <f t="shared" ref="I67:I71" si="27">E67+G67</f>
         <v>2015</v>
       </c>
       <c r="J67" s="7">
-        <f t="shared" ref="J67:J71" si="21">F67+H67</f>
+        <f t="shared" ref="J67:J71" si="28">F67+H67</f>
         <v>1298</v>
       </c>
       <c r="K67" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.60821008149713252</v>
       </c>
       <c r="L67" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.39178991850286748</v>
       </c>
       <c r="M67" s="5">
+        <f t="shared" si="23"/>
+        <v>107.31392991601506</v>
+      </c>
+      <c r="N67" s="5">
+        <f t="shared" si="24"/>
+        <v>77.686070083984944</v>
+      </c>
+      <c r="O67" s="5">
+        <f t="shared" si="10"/>
+        <v>3498</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="11"/>
+        <v>0.33847913093196114</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="12"/>
+        <v>0.14036592338479131</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="13"/>
+        <v>0.23756432246998285</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="14"/>
+        <v>0.23070325900514579</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="15"/>
+        <v>3.0678653492285608E-2</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="16"/>
+        <v>2.2208710715833316E-2</v>
+      </c>
+      <c r="V67" s="5">
+        <f t="shared" si="17"/>
+        <v>1057.7472841623785</v>
+      </c>
+      <c r="W67" s="5">
         <f t="shared" si="18"/>
-        <v>107.31392991601506</v>
-      </c>
-      <c r="N67" s="5">
+        <v>438.64351057747285</v>
+      </c>
+      <c r="X67" s="5">
         <f t="shared" si="19"/>
-        <v>77.686070083984944</v>
-      </c>
-      <c r="O67" s="5">
-        <f t="shared" si="5"/>
-        <v>3498</v>
-      </c>
-      <c r="P67">
-        <f t="shared" si="6"/>
-        <v>0.33847913093196114</v>
-      </c>
-      <c r="Q67">
-        <f t="shared" si="7"/>
-        <v>0.14036592338479131</v>
-      </c>
-      <c r="R67">
-        <f t="shared" si="8"/>
-        <v>0.23756432246998285</v>
-      </c>
-      <c r="S67">
-        <f t="shared" si="9"/>
-        <v>0.23070325900514579</v>
-      </c>
-      <c r="T67">
-        <f t="shared" si="10"/>
-        <v>3.0678653492285608E-2</v>
-      </c>
-      <c r="U67">
-        <f t="shared" si="11"/>
-        <v>2.2208710715833316E-2</v>
-      </c>
-      <c r="V67" s="5">
-        <f t="shared" si="12"/>
-        <v>1057.7472841623785</v>
-      </c>
-      <c r="W67" s="5">
-        <f t="shared" si="13"/>
-        <v>438.64351057747285</v>
-      </c>
-      <c r="X67" s="5">
-        <f t="shared" si="14"/>
         <v>742.38850771869636</v>
       </c>
       <c r="Y67" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>720.94768439108066</v>
       </c>
       <c r="Z67" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>95.870792163392522</v>
       </c>
       <c r="AA67" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>69.402220986979117</v>
       </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB67" s="21">
+        <v>112407</v>
+      </c>
+      <c r="AC67" s="12">
+        <v>85009</v>
+      </c>
+      <c r="AD67" s="21">
+        <v>27398</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" si="25"/>
+        <v>0.75626073109325931</v>
+      </c>
+      <c r="AF67">
+        <f t="shared" si="26"/>
+        <v>0.24373926890674069</v>
+      </c>
+      <c r="AM67">
+        <f>AM66+C67</f>
+        <v>118654</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2016</v>
       </c>
@@ -5642,83 +7711,104 @@
         <v>801</v>
       </c>
       <c r="I68" s="7">
+        <f t="shared" si="27"/>
+        <v>2008</v>
+      </c>
+      <c r="J68" s="7">
+        <f t="shared" si="28"/>
+        <v>1340</v>
+      </c>
+      <c r="K68" s="7">
+        <f t="shared" si="8"/>
+        <v>0.59976105137395463</v>
+      </c>
+      <c r="L68" s="7">
+        <f t="shared" si="9"/>
+        <v>0.40023894862604537</v>
+      </c>
+      <c r="M68" s="5">
+        <f t="shared" si="23"/>
+        <v>137.45547841835196</v>
+      </c>
+      <c r="N68" s="5">
+        <f t="shared" si="24"/>
+        <v>88.544521581648041</v>
+      </c>
+      <c r="O68" s="5">
+        <f t="shared" si="10"/>
+        <v>3574</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="11"/>
+        <v>0.32232792389479575</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="12"/>
+        <v>0.15081141578063795</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="13"/>
+        <v>0.23950755456071629</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="14"/>
+        <v>0.22411863458310016</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="15"/>
+        <v>3.8459842870271953E-2</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="16"/>
+        <v>2.4774628310477907E-2</v>
+      </c>
+      <c r="V68" s="5">
+        <f t="shared" si="17"/>
+        <v>1001.1505316172356</v>
+      </c>
+      <c r="W68" s="5">
+        <f t="shared" si="18"/>
+        <v>468.42025741466148</v>
+      </c>
+      <c r="X68" s="5">
+        <f t="shared" si="19"/>
+        <v>743.91046446558482</v>
+      </c>
+      <c r="Y68" s="5">
         <f t="shared" si="20"/>
-        <v>2008</v>
-      </c>
-      <c r="J68" s="7">
+        <v>696.1124790151091</v>
+      </c>
+      <c r="Z68" s="5">
         <f t="shared" si="21"/>
-        <v>1340</v>
-      </c>
-      <c r="K68" s="7">
-        <f t="shared" si="3"/>
-        <v>0.59976105137395463</v>
-      </c>
-      <c r="L68" s="7">
-        <f t="shared" si="4"/>
-        <v>0.40023894862604537</v>
-      </c>
-      <c r="M68" s="5">
-        <f t="shared" si="18"/>
-        <v>137.45547841835196</v>
-      </c>
-      <c r="N68" s="5">
-        <f t="shared" si="19"/>
-        <v>88.544521581648041</v>
-      </c>
-      <c r="O68" s="5">
-        <f t="shared" si="5"/>
-        <v>3574</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="6"/>
-        <v>0.32232792389479575</v>
-      </c>
-      <c r="Q68">
-        <f t="shared" si="7"/>
-        <v>0.15081141578063795</v>
-      </c>
-      <c r="R68">
-        <f t="shared" si="8"/>
-        <v>0.23950755456071629</v>
-      </c>
-      <c r="S68">
-        <f t="shared" si="9"/>
-        <v>0.22411863458310016</v>
-      </c>
-      <c r="T68">
-        <f t="shared" si="10"/>
-        <v>3.8459842870271953E-2</v>
-      </c>
-      <c r="U68">
-        <f t="shared" si="11"/>
-        <v>2.4774628310477907E-2</v>
-      </c>
-      <c r="V68" s="5">
-        <f t="shared" si="12"/>
-        <v>1001.1505316172356</v>
-      </c>
-      <c r="W68" s="5">
-        <f t="shared" si="13"/>
-        <v>468.42025741466148</v>
-      </c>
-      <c r="X68" s="5">
-        <f t="shared" si="14"/>
-        <v>743.91046446558482</v>
-      </c>
-      <c r="Y68" s="5">
-        <f t="shared" si="15"/>
-        <v>696.1124790151091</v>
-      </c>
-      <c r="Z68" s="5">
-        <f t="shared" si="16"/>
         <v>119.45627195506468</v>
       </c>
       <c r="AA68" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>76.949995532344374</v>
       </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB68" s="20">
+        <v>115976</v>
+      </c>
+      <c r="AC68" s="12">
+        <v>87378</v>
+      </c>
+      <c r="AD68" s="20">
+        <v>28598</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="25"/>
+        <v>0.75341449955163142</v>
+      </c>
+      <c r="AF68">
+        <f t="shared" si="26"/>
+        <v>0.24658550044836863</v>
+      </c>
+      <c r="AM68">
+        <f>AM67+C68</f>
+        <v>121760</v>
+      </c>
+    </row>
+    <row r="69" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2017</v>
       </c>
@@ -5729,7 +7819,7 @@
         <v>3095</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" ref="D69:D72" si="22">B69-C69</f>
+        <f t="shared" ref="D69:D72" si="29">B69-C69</f>
         <v>251</v>
       </c>
       <c r="E69" s="3">
@@ -5745,83 +7835,104 @@
         <v>758</v>
       </c>
       <c r="I69" s="7">
+        <f t="shared" si="27"/>
+        <v>2018</v>
+      </c>
+      <c r="J69" s="7">
+        <f t="shared" si="28"/>
+        <v>1238</v>
+      </c>
+      <c r="K69" s="7">
+        <f t="shared" si="8"/>
+        <v>0.61977886977886976</v>
+      </c>
+      <c r="L69" s="7">
+        <f t="shared" si="9"/>
+        <v>0.38022113022113024</v>
+      </c>
+      <c r="M69" s="5">
+        <f t="shared" si="23"/>
+        <v>150.5400238948626</v>
+      </c>
+      <c r="N69" s="5">
+        <f t="shared" si="24"/>
+        <v>100.4599761051374</v>
+      </c>
+      <c r="O69" s="5">
+        <f t="shared" si="10"/>
+        <v>3507</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="11"/>
+        <v>0.30082691759338465</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="12"/>
+        <v>0.13686911890504705</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="13"/>
+        <v>0.27459366980325062</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="14"/>
+        <v>0.21613915027088679</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="15"/>
+        <v>4.2925584230072027E-2</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="16"/>
+        <v>2.8645559197358825E-2</v>
+      </c>
+      <c r="V69" s="5">
+        <f t="shared" si="17"/>
+        <v>931.05930995152551</v>
+      </c>
+      <c r="W69" s="5">
+        <f t="shared" si="18"/>
+        <v>423.6099230111206</v>
+      </c>
+      <c r="X69" s="5">
+        <f t="shared" si="19"/>
+        <v>849.86740804106068</v>
+      </c>
+      <c r="Y69" s="5">
         <f t="shared" si="20"/>
-        <v>2018</v>
-      </c>
-      <c r="J69" s="7">
+        <v>668.95067008839465</v>
+      </c>
+      <c r="Z69" s="5">
         <f t="shared" si="21"/>
-        <v>1238</v>
-      </c>
-      <c r="K69" s="7">
-        <f t="shared" si="3"/>
-        <v>0.61977886977886976</v>
-      </c>
-      <c r="L69" s="7">
-        <f t="shared" si="4"/>
-        <v>0.38022113022113024</v>
-      </c>
-      <c r="M69" s="5">
-        <f t="shared" si="18"/>
-        <v>150.5400238948626</v>
-      </c>
-      <c r="N69" s="5">
-        <f t="shared" si="19"/>
-        <v>100.4599761051374</v>
-      </c>
-      <c r="O69" s="5">
-        <f t="shared" si="5"/>
-        <v>3507</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="6"/>
-        <v>0.30082691759338465</v>
-      </c>
-      <c r="Q69">
-        <f t="shared" si="7"/>
-        <v>0.13686911890504705</v>
-      </c>
-      <c r="R69">
-        <f t="shared" si="8"/>
-        <v>0.27459366980325062</v>
-      </c>
-      <c r="S69">
-        <f t="shared" si="9"/>
-        <v>0.21613915027088679</v>
-      </c>
-      <c r="T69">
-        <f t="shared" si="10"/>
-        <v>4.2925584230072027E-2</v>
-      </c>
-      <c r="U69">
-        <f t="shared" si="11"/>
-        <v>2.8645559197358825E-2</v>
-      </c>
-      <c r="V69" s="5">
-        <f t="shared" si="12"/>
-        <v>931.05930995152551</v>
-      </c>
-      <c r="W69" s="5">
-        <f t="shared" si="13"/>
-        <v>423.6099230111206</v>
-      </c>
-      <c r="X69" s="5">
-        <f t="shared" si="14"/>
-        <v>849.86740804106068</v>
-      </c>
-      <c r="Y69" s="5">
-        <f t="shared" si="15"/>
-        <v>668.95067008839465</v>
-      </c>
-      <c r="Z69" s="5">
-        <f t="shared" si="16"/>
         <v>132.85468319207291</v>
       </c>
       <c r="AA69" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>88.658005715825567</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB69" s="21">
+        <v>118696</v>
+      </c>
+      <c r="AC69" s="12">
+        <v>88898</v>
+      </c>
+      <c r="AD69" s="21">
+        <v>29798</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="25"/>
+        <v>0.74895531441666108</v>
+      </c>
+      <c r="AF69">
+        <f t="shared" si="26"/>
+        <v>0.25104468558333892</v>
+      </c>
+      <c r="AM69">
+        <f>AM68+C69</f>
+        <v>124855</v>
+      </c>
+    </row>
+    <row r="70" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2018</v>
       </c>
@@ -5832,7 +7943,7 @@
         <v>3204</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>181</v>
       </c>
       <c r="E70" s="3">
@@ -5848,83 +7959,104 @@
         <v>753</v>
       </c>
       <c r="I70" s="7">
+        <f t="shared" si="27"/>
+        <v>1989</v>
+      </c>
+      <c r="J70" s="7">
+        <f t="shared" si="28"/>
+        <v>1234</v>
+      </c>
+      <c r="K70" s="7">
+        <f t="shared" si="8"/>
+        <v>0.61712690040335094</v>
+      </c>
+      <c r="L70" s="7">
+        <f t="shared" si="9"/>
+        <v>0.38287309959664906</v>
+      </c>
+      <c r="M70" s="5">
+        <f t="shared" si="23"/>
+        <v>112.17997542997543</v>
+      </c>
+      <c r="N70" s="5">
+        <f t="shared" si="24"/>
+        <v>68.820024570024572</v>
+      </c>
+      <c r="O70" s="5">
+        <f t="shared" si="10"/>
+        <v>3404</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="11"/>
+        <v>0.30287896592244418</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="12"/>
+        <v>0.14130434782608695</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="13"/>
+        <v>0.28143360752056407</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="14"/>
+        <v>0.22121034077555818</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="15"/>
+        <v>3.2955339433012758E-2</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="16"/>
+        <v>2.0217398522333892E-2</v>
+      </c>
+      <c r="V70" s="5">
+        <f t="shared" si="17"/>
+        <v>970.42420681551118</v>
+      </c>
+      <c r="W70" s="5">
+        <f t="shared" si="18"/>
+        <v>452.73913043478257</v>
+      </c>
+      <c r="X70" s="5">
+        <f t="shared" si="19"/>
+        <v>901.71327849588727</v>
+      </c>
+      <c r="Y70" s="5">
         <f t="shared" si="20"/>
-        <v>1989</v>
-      </c>
-      <c r="J70" s="7">
+        <v>708.75793184488839</v>
+      </c>
+      <c r="Z70" s="5">
         <f t="shared" si="21"/>
-        <v>1234</v>
-      </c>
-      <c r="K70" s="7">
-        <f t="shared" si="3"/>
-        <v>0.61712690040335094</v>
-      </c>
-      <c r="L70" s="7">
-        <f t="shared" si="4"/>
-        <v>0.38287309959664906</v>
-      </c>
-      <c r="M70" s="5">
-        <f t="shared" si="18"/>
-        <v>112.17997542997543</v>
-      </c>
-      <c r="N70" s="5">
-        <f t="shared" si="19"/>
-        <v>68.820024570024572</v>
-      </c>
-      <c r="O70" s="5">
-        <f t="shared" si="5"/>
-        <v>3404</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="6"/>
-        <v>0.30287896592244418</v>
-      </c>
-      <c r="Q70">
-        <f t="shared" si="7"/>
-        <v>0.14130434782608695</v>
-      </c>
-      <c r="R70">
-        <f t="shared" si="8"/>
-        <v>0.28143360752056407</v>
-      </c>
-      <c r="S70">
-        <f t="shared" si="9"/>
-        <v>0.22121034077555818</v>
-      </c>
-      <c r="T70">
-        <f t="shared" si="10"/>
-        <v>3.2955339433012758E-2</v>
-      </c>
-      <c r="U70">
-        <f t="shared" si="11"/>
-        <v>2.0217398522333892E-2</v>
-      </c>
-      <c r="V70" s="5">
-        <f t="shared" si="12"/>
-        <v>970.42420681551118</v>
-      </c>
-      <c r="W70" s="5">
-        <f t="shared" si="13"/>
-        <v>452.73913043478257</v>
-      </c>
-      <c r="X70" s="5">
-        <f t="shared" si="14"/>
-        <v>901.71327849588727</v>
-      </c>
-      <c r="Y70" s="5">
-        <f t="shared" si="15"/>
-        <v>708.75793184488839</v>
-      </c>
-      <c r="Z70" s="5">
-        <f t="shared" si="16"/>
         <v>105.58890754337287</v>
       </c>
       <c r="AA70" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>64.776544865557796</v>
       </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB70" s="20">
+        <v>121571</v>
+      </c>
+      <c r="AC70" s="12">
+        <v>90681</v>
+      </c>
+      <c r="AD70" s="20">
+        <v>30890</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" si="25"/>
+        <v>0.74590979756685394</v>
+      </c>
+      <c r="AF70">
+        <f t="shared" si="26"/>
+        <v>0.25409020243314606</v>
+      </c>
+      <c r="AM70">
+        <f>AM69+C70</f>
+        <v>128059</v>
+      </c>
+    </row>
+    <row r="71" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2019</v>
       </c>
@@ -5935,7 +8067,7 @@
         <v>3115</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>203</v>
       </c>
       <c r="E71" s="3">
@@ -5951,83 +8083,104 @@
         <v>566</v>
       </c>
       <c r="I71" s="7">
+        <f t="shared" si="27"/>
+        <v>1994</v>
+      </c>
+      <c r="J71" s="7">
+        <f t="shared" si="28"/>
+        <v>1206</v>
+      </c>
+      <c r="K71" s="7">
+        <f t="shared" si="8"/>
+        <v>0.62312500000000004</v>
+      </c>
+      <c r="L71" s="7">
+        <f t="shared" si="9"/>
+        <v>0.37687499999999996</v>
+      </c>
+      <c r="M71" s="5">
+        <f t="shared" si="23"/>
+        <v>125.27676078188024</v>
+      </c>
+      <c r="N71" s="5">
+        <f t="shared" si="24"/>
+        <v>77.723239218119758</v>
+      </c>
+      <c r="O71" s="5">
+        <f t="shared" si="10"/>
+        <v>3403</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="11"/>
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="12"/>
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="13"/>
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="14"/>
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="15"/>
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="16"/>
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V71" s="5">
+        <f t="shared" si="17"/>
+        <v>1200.0484866294446</v>
+      </c>
+      <c r="W71" s="5">
+        <f t="shared" si="18"/>
+        <v>585.83602703496911</v>
+      </c>
+      <c r="X71" s="5">
+        <f t="shared" si="19"/>
+        <v>625.1968851013811</v>
+      </c>
+      <c r="Y71" s="5">
         <f t="shared" si="20"/>
-        <v>1994</v>
-      </c>
-      <c r="J71" s="7">
+        <v>518.09873640905084</v>
+      </c>
+      <c r="Z71" s="5">
         <f t="shared" si="21"/>
-        <v>1206</v>
-      </c>
-      <c r="K71" s="7">
-        <f t="shared" si="3"/>
-        <v>0.62312500000000004</v>
-      </c>
-      <c r="L71" s="7">
-        <f t="shared" si="4"/>
-        <v>0.37687499999999996</v>
-      </c>
-      <c r="M71" s="5">
-        <f t="shared" si="18"/>
-        <v>125.27676078188024</v>
-      </c>
-      <c r="N71" s="5">
-        <f t="shared" si="19"/>
-        <v>77.723239218119758</v>
-      </c>
-      <c r="O71" s="5">
-        <f t="shared" si="5"/>
-        <v>3403</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="6"/>
-        <v>0.38524831031442847</v>
-      </c>
-      <c r="Q71">
-        <f t="shared" si="7"/>
-        <v>0.18806935057302379</v>
-      </c>
-      <c r="R71">
-        <f t="shared" si="8"/>
-        <v>0.20070526006464884</v>
-      </c>
-      <c r="S71">
-        <f t="shared" si="9"/>
-        <v>0.16632383191301792</v>
-      </c>
-      <c r="T71">
-        <f t="shared" si="10"/>
-        <v>3.6813623503344182E-2</v>
-      </c>
-      <c r="U71">
-        <f t="shared" si="11"/>
-        <v>2.2839623631536809E-2</v>
-      </c>
-      <c r="V71" s="5">
-        <f t="shared" si="12"/>
-        <v>1200.0484866294446</v>
-      </c>
-      <c r="W71" s="5">
-        <f t="shared" si="13"/>
-        <v>585.83602703496911</v>
-      </c>
-      <c r="X71" s="5">
-        <f t="shared" si="14"/>
-        <v>625.1968851013811</v>
-      </c>
-      <c r="Y71" s="5">
-        <f t="shared" si="15"/>
-        <v>518.09873640905084</v>
-      </c>
-      <c r="Z71" s="5">
-        <f t="shared" si="16"/>
         <v>114.67443721291713</v>
       </c>
       <c r="AA71" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>71.145427612237157</v>
       </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB71" s="21">
+        <v>123106</v>
+      </c>
+      <c r="AC71" s="12">
+        <v>91094</v>
+      </c>
+      <c r="AD71" s="21">
+        <v>32012</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="25"/>
+        <v>0.73996393352070577</v>
+      </c>
+      <c r="AF71">
+        <f t="shared" si="26"/>
+        <v>0.26003606647929428</v>
+      </c>
+      <c r="AM71">
+        <f>AM70+C71</f>
+        <v>131174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2020</v>
       </c>
@@ -6038,33 +8191,1528 @@
         <v>3025</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>195</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="4">
-        <v>0</v>
-      </c>
-      <c r="H72" s="4">
-        <v>0</v>
-      </c>
-      <c r="I72" s="7">
-        <v>0</v>
-      </c>
-      <c r="J72" s="7">
-        <v>0</v>
-      </c>
-      <c r="K72" s="7">
-        <v>0</v>
-      </c>
-      <c r="L72" s="7">
-        <v>0</v>
-      </c>
+      <c r="I72" s="10">
+        <v>0</v>
+      </c>
+      <c r="J72" s="10">
+        <v>0</v>
+      </c>
+      <c r="K72" s="10">
+        <v>0</v>
+      </c>
+      <c r="L72" s="10">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q72">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R72">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S72">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T72">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U72">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V72" s="8">
+        <f>C72*P72</f>
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W72" s="8">
+        <f>C72*Q72</f>
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X72" s="9">
+        <f>C72*R72</f>
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y72" s="9">
+        <f>C72*S72</f>
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z72" s="5">
+        <f>C72*T72</f>
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA72" s="5">
+        <f>C72*U72</f>
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB72" s="20">
+        <v>126724</v>
+      </c>
+      <c r="AC72" s="12">
+        <v>126724</v>
+      </c>
+      <c r="AD72" s="18"/>
+    </row>
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I73" s="10">
+        <v>0</v>
+      </c>
+      <c r="J73" s="10">
+        <v>0</v>
+      </c>
+      <c r="K73" s="10">
+        <v>0</v>
+      </c>
+      <c r="L73" s="10">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q73">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R73">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S73">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T73">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U73">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V73" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W73" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X73" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y73" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z73" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA73" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB73" s="5"/>
+    </row>
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>2022</v>
+      </c>
+      <c r="I74" s="10">
+        <v>0</v>
+      </c>
+      <c r="J74" s="10">
+        <v>0</v>
+      </c>
+      <c r="K74" s="10">
+        <v>0</v>
+      </c>
+      <c r="L74" s="10">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q74">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R74">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S74">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T74">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U74">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V74" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W74" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X74" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y74" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z74" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA74" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB74" s="5"/>
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I75" s="10">
+        <v>0</v>
+      </c>
+      <c r="J75" s="10">
+        <v>0</v>
+      </c>
+      <c r="K75" s="10">
+        <v>0</v>
+      </c>
+      <c r="L75" s="10">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q75">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R75">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S75">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T75">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U75">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V75" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W75" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X75" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y75" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z75" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA75" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB75" s="5"/>
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>2024</v>
+      </c>
+      <c r="I76" s="10">
+        <v>0</v>
+      </c>
+      <c r="J76" s="10">
+        <v>0</v>
+      </c>
+      <c r="K76" s="10">
+        <v>0</v>
+      </c>
+      <c r="L76" s="10">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q76">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R76">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S76">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T76">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U76">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V76" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W76" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X76" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y76" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z76" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA76" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB76" s="5"/>
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I77" s="10">
+        <v>0</v>
+      </c>
+      <c r="J77" s="10">
+        <v>0</v>
+      </c>
+      <c r="K77" s="10">
+        <v>0</v>
+      </c>
+      <c r="L77" s="10">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q77">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R77">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S77">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T77">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U77">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V77" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W77" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X77" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y77" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z77" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA77" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB77" s="5"/>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>2026</v>
+      </c>
+      <c r="I78" s="10">
+        <v>0</v>
+      </c>
+      <c r="J78" s="10">
+        <v>0</v>
+      </c>
+      <c r="K78" s="10">
+        <v>0</v>
+      </c>
+      <c r="L78" s="10">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q78">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R78">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S78">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T78">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U78">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V78" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W78" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X78" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y78" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z78" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA78" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB78" s="5"/>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>2027</v>
+      </c>
+      <c r="I79" s="10">
+        <v>0</v>
+      </c>
+      <c r="J79" s="10">
+        <v>0</v>
+      </c>
+      <c r="K79" s="10">
+        <v>0</v>
+      </c>
+      <c r="L79" s="10">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q79">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R79">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S79">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T79">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U79">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V79" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W79" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X79" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y79" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z79" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA79" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB79" s="5"/>
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>2028</v>
+      </c>
+      <c r="I80" s="10">
+        <v>0</v>
+      </c>
+      <c r="J80" s="10">
+        <v>0</v>
+      </c>
+      <c r="K80" s="10">
+        <v>0</v>
+      </c>
+      <c r="L80" s="10">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q80">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R80">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S80">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T80">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U80">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V80" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W80" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X80" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y80" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z80" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA80" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB80" s="5"/>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>2029</v>
+      </c>
+      <c r="I81" s="10">
+        <v>0</v>
+      </c>
+      <c r="J81" s="10">
+        <v>0</v>
+      </c>
+      <c r="K81" s="10">
+        <v>0</v>
+      </c>
+      <c r="L81" s="10">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q81">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R81">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S81">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T81">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U81">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V81" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W81" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X81" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y81" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z81" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA81" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB81" s="5"/>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>2030</v>
+      </c>
+      <c r="I82" s="10">
+        <v>0</v>
+      </c>
+      <c r="J82" s="10">
+        <v>0</v>
+      </c>
+      <c r="K82" s="10">
+        <v>0</v>
+      </c>
+      <c r="L82" s="10">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q82">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R82">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S82">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T82">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U82">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V82" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W82" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X82" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y82" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z82" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA82" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB82" s="5"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>2031</v>
+      </c>
+      <c r="I83" s="10">
+        <v>0</v>
+      </c>
+      <c r="J83" s="10">
+        <v>0</v>
+      </c>
+      <c r="K83" s="10">
+        <v>0</v>
+      </c>
+      <c r="L83" s="10">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q83">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R83">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S83">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T83">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U83">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V83" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W83" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X83" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y83" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z83" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA83" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB83" s="5"/>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>2032</v>
+      </c>
+      <c r="I84" s="10">
+        <v>0</v>
+      </c>
+      <c r="J84" s="10">
+        <v>0</v>
+      </c>
+      <c r="K84" s="10">
+        <v>0</v>
+      </c>
+      <c r="L84" s="10">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q84">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R84">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S84">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T84">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U84">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V84" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W84" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X84" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y84" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z84" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA84" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB84" s="5"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>2033</v>
+      </c>
+      <c r="I85" s="10">
+        <v>0</v>
+      </c>
+      <c r="J85" s="10">
+        <v>0</v>
+      </c>
+      <c r="K85" s="10">
+        <v>0</v>
+      </c>
+      <c r="L85" s="10">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q85">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R85">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S85">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T85">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U85">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V85" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W85" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X85" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y85" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z85" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA85" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB85" s="5"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>2034</v>
+      </c>
+      <c r="I86" s="10">
+        <v>0</v>
+      </c>
+      <c r="J86" s="10">
+        <v>0</v>
+      </c>
+      <c r="K86" s="10">
+        <v>0</v>
+      </c>
+      <c r="L86" s="10">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q86">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R86">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S86">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T86">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U86">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V86" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W86" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X86" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y86" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z86" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA86" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB86" s="5"/>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>2035</v>
+      </c>
+      <c r="I87" s="10">
+        <v>0</v>
+      </c>
+      <c r="J87" s="10">
+        <v>0</v>
+      </c>
+      <c r="K87" s="10">
+        <v>0</v>
+      </c>
+      <c r="L87" s="10">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q87">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R87">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S87">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T87">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U87">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V87" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W87" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X87" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y87" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z87" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA87" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB87" s="5"/>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>2036</v>
+      </c>
+      <c r="I88" s="10">
+        <v>0</v>
+      </c>
+      <c r="J88" s="10">
+        <v>0</v>
+      </c>
+      <c r="K88" s="10">
+        <v>0</v>
+      </c>
+      <c r="L88" s="10">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q88">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R88">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S88">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T88">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U88">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V88" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W88" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X88" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y88" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z88" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA88" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB88" s="5"/>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>2037</v>
+      </c>
+      <c r="I89" s="10">
+        <v>0</v>
+      </c>
+      <c r="J89" s="10">
+        <v>0</v>
+      </c>
+      <c r="K89" s="10">
+        <v>0</v>
+      </c>
+      <c r="L89" s="10">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q89">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R89">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S89">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T89">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U89">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V89" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W89" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X89" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y89" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z89" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA89" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB89" s="5"/>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>2038</v>
+      </c>
+      <c r="I90" s="10">
+        <v>0</v>
+      </c>
+      <c r="J90" s="10">
+        <v>0</v>
+      </c>
+      <c r="K90" s="10">
+        <v>0</v>
+      </c>
+      <c r="L90" s="10">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q90">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R90">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S90">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T90">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U90">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V90" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W90" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X90" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y90" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z90" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA90" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB90" s="5"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>2039</v>
+      </c>
+      <c r="I91" s="10">
+        <v>0</v>
+      </c>
+      <c r="J91" s="10">
+        <v>0</v>
+      </c>
+      <c r="K91" s="10">
+        <v>0</v>
+      </c>
+      <c r="L91" s="10">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q91">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R91">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S91">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T91">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U91">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V91" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W91" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X91" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y91" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z91" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA91" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB91" s="5"/>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>2040</v>
+      </c>
+      <c r="I92" s="10">
+        <v>0</v>
+      </c>
+      <c r="J92" s="10">
+        <v>0</v>
+      </c>
+      <c r="K92" s="10">
+        <v>0</v>
+      </c>
+      <c r="L92" s="10">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q92">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R92">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S92">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T92">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U92">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V92" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W92" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X92" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y92" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z92" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA92" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB92" s="5"/>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>2041</v>
+      </c>
+      <c r="I93" s="10">
+        <v>0</v>
+      </c>
+      <c r="J93" s="10">
+        <v>0</v>
+      </c>
+      <c r="K93" s="10">
+        <v>0</v>
+      </c>
+      <c r="L93" s="10">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q93">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R93">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S93">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T93">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U93">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V93" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W93" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X93" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y93" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z93" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA93" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB93" s="5"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>2042</v>
+      </c>
+      <c r="I94" s="10">
+        <v>0</v>
+      </c>
+      <c r="J94" s="10">
+        <v>0</v>
+      </c>
+      <c r="K94" s="10">
+        <v>0</v>
+      </c>
+      <c r="L94" s="10">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q94">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R94">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S94">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T94">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U94">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V94" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W94" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X94" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y94" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z94" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA94" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB94" s="5"/>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>2043</v>
+      </c>
+      <c r="I95" s="10">
+        <v>0</v>
+      </c>
+      <c r="J95" s="10">
+        <v>0</v>
+      </c>
+      <c r="K95" s="10">
+        <v>0</v>
+      </c>
+      <c r="L95" s="10">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q95">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R95">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S95">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T95">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U95">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V95" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W95" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X95" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y95" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z95" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA95" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB95" s="5"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>2044</v>
+      </c>
+      <c r="I96" s="10">
+        <v>0</v>
+      </c>
+      <c r="J96" s="10">
+        <v>0</v>
+      </c>
+      <c r="K96" s="10">
+        <v>0</v>
+      </c>
+      <c r="L96" s="10">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q96">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R96">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S96">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T96">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U96">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V96" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W96" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X96" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y96" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z96" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA96" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB96" s="5"/>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>2045</v>
+      </c>
+      <c r="I97" s="10">
+        <v>0</v>
+      </c>
+      <c r="J97" s="10">
+        <v>0</v>
+      </c>
+      <c r="K97" s="10">
+        <v>0</v>
+      </c>
+      <c r="L97" s="10">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q97">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R97">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S97">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T97">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U97">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V97" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W97" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X97" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y97" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z97" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA97" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB97" s="5"/>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>2046</v>
+      </c>
+      <c r="I98" s="10">
+        <v>0</v>
+      </c>
+      <c r="J98" s="10">
+        <v>0</v>
+      </c>
+      <c r="K98" s="10">
+        <v>0</v>
+      </c>
+      <c r="L98" s="10">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q98">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R98">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S98">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T98">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U98">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V98" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W98" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X98" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y98" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z98" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA98" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB98" s="5"/>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>2047</v>
+      </c>
+      <c r="I99" s="10">
+        <v>0</v>
+      </c>
+      <c r="J99" s="10">
+        <v>0</v>
+      </c>
+      <c r="K99" s="10">
+        <v>0</v>
+      </c>
+      <c r="L99" s="10">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0.38524831031442847</v>
+      </c>
+      <c r="Q99">
+        <v>0.18806935057302379</v>
+      </c>
+      <c r="R99">
+        <v>0.20070526006464884</v>
+      </c>
+      <c r="S99">
+        <v>0.16632383191301792</v>
+      </c>
+      <c r="T99">
+        <v>3.6813623503344182E-2</v>
+      </c>
+      <c r="U99">
+        <v>2.2839623631536809E-2</v>
+      </c>
+      <c r="V99" s="5">
+        <v>1165.3761387011461</v>
+      </c>
+      <c r="W99" s="5">
+        <v>568.90978548339694</v>
+      </c>
+      <c r="X99" s="5">
+        <v>607.1334116955627</v>
+      </c>
+      <c r="Y99" s="5">
+        <v>503.12959153687922</v>
+      </c>
+      <c r="Z99" s="5">
+        <v>111.36121109761615</v>
+      </c>
+      <c r="AA99" s="5">
+        <v>69.089861485398842</v>
+      </c>
+      <c r="AB99" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
